--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4633377-6ACF-4ACD-9DAD-4ED2296A5219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B8A4CD-9816-4FFF-BEA0-ABED273B0CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="228" yWindow="876" windowWidth="19896" windowHeight="9888" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -106,6 +97,12 @@
   <si>
     <t>Count</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Ingame_3d_003</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Ingame_3d_009</t>
   </si>
 </sst>
 </file>
@@ -173,8 +170,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:M7" totalsRowShown="0">
-  <autoFilter ref="A1:M7" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:M41" totalsRowShown="0">
+  <autoFilter ref="A1:M41" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
     <tableColumn id="2" xr3:uid="{AA5BE291-BCD0-4E9A-BE67-17FB70DBFC44}" name="ResourcePath"/>
@@ -491,21 +488,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L38" sqref="L38:L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" customWidth="1"/>
+    <col min="12" max="12" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,9 +543,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -566,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -578,12 +575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -598,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -607,15 +604,15 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -630,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -639,31 +636,31 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
       <c r="K5">
         <v>1</v>
       </c>
@@ -671,15 +668,15 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -703,39 +700,1127 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1.5</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1.5</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1.5</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1.5</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>205</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1.5</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>301</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.8</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>302</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.8</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>303</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.8</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>304</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.8</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>305</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.8</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>501</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>502</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>503</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>504</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>505</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>601</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>602</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>603</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>604</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>605</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>701</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>702</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>703</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>704</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>705</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>801</v>
+      </c>
+      <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>802</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>803</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>804</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>805</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
         <v>5</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>901</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>902</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>903</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>904</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>905</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B8A4CD-9816-4FFF-BEA0-ABED273B0CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6437AB47-F872-40E0-B951-2401DCD99AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="876" windowWidth="19896" windowHeight="9888" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="576" yWindow="1224" windowWidth="19896" windowHeight="9888" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -170,8 +170,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:M41" totalsRowShown="0">
-  <autoFilter ref="A1:M41" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:M81" totalsRowShown="0">
+  <autoFilter ref="A1:M81" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
     <tableColumn id="2" xr3:uid="{AA5BE291-BCD0-4E9A-BE67-17FB70DBFC44}" name="ResourcePath"/>
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38:L41"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -705,10 +705,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -723,24 +723,24 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -755,56 +755,56 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -819,24 +819,24 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -851,24 +851,24 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -889,18 +889,18 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -921,18 +921,18 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -953,18 +953,18 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -985,18 +985,18 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1017,18 +1017,18 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>501</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1043,24 +1043,24 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>502</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1075,24 +1075,24 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>503</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1107,56 +1107,56 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>504</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>9</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>505</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1171,24 +1171,24 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>601</v>
+        <v>301</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1209,18 +1209,18 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>602</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1241,18 +1241,18 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>603</v>
+        <v>303</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1273,18 +1273,18 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>604</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1305,18 +1305,18 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>605</v>
+        <v>305</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1337,18 +1337,18 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>701</v>
+        <v>306</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1363,24 +1363,24 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M27">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>702</v>
+        <v>307</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1395,24 +1395,24 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M28">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>703</v>
+        <v>308</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1427,24 +1427,24 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>704</v>
+        <v>309</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1459,24 +1459,24 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>705</v>
+        <v>310</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1491,24 +1491,24 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M31">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>801</v>
+        <v>501</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1532,15 +1532,15 @@
         <v>2</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>802</v>
+        <v>502</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1564,15 +1564,15 @@
         <v>2</v>
       </c>
       <c r="M33">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>803</v>
+        <v>503</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1596,15 +1596,15 @@
         <v>2</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>804</v>
+        <v>504</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1628,15 +1628,15 @@
         <v>2</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>805</v>
+        <v>505</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1660,15 +1660,15 @@
         <v>2</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>901</v>
+        <v>506</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1683,24 +1683,24 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M37">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>902</v>
+        <v>507</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1715,24 +1715,24 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>903</v>
+        <v>508</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1747,24 +1747,24 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M39">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>904</v>
+        <v>509</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1779,47 +1779,1327 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41">
+        <v>510</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>601</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>602</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>603</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>604</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>605</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>606</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>607</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>7</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>608</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>609</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>9</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>610</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>701</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>702</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>703</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>704</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>705</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>706</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>6</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>707</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>7</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>708</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>709</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>9</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>710</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>801</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>802</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>803</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>804</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>805</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>806</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>6</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>807</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>7</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>808</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>8</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>809</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>9</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>810</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>10</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>901</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>902</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>903</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>904</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A76">
         <v>905</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B76" t="s">
         <v>20</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
         <v>5</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
         <v>4</v>
       </c>
-      <c r="M41">
+      <c r="M76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>906</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>907</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>7</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>908</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>8</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>909</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>9</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>910</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
         <v>9</v>
       </c>
     </row>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4633377-6ACF-4ACD-9DAD-4ED2296A5219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6437AB47-F872-40E0-B951-2401DCD99AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="576" yWindow="1224" windowWidth="19896" windowHeight="9888" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -107,6 +98,12 @@
     <t>Count</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Prefabs/Game/Scene/Ingame_3d_003</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Ingame_3d_009</t>
+  </si>
 </sst>
 </file>
 
@@ -173,8 +170,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:M7" totalsRowShown="0">
-  <autoFilter ref="A1:M7" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:M81" totalsRowShown="0">
+  <autoFilter ref="A1:M81" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
     <tableColumn id="2" xr3:uid="{AA5BE291-BCD0-4E9A-BE67-17FB70DBFC44}" name="ResourcePath"/>
@@ -491,21 +488,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" customWidth="1"/>
+    <col min="12" max="12" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,9 +543,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -566,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -578,12 +575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -598,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -607,15 +604,15 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -630,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -639,31 +636,31 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
       <c r="K5">
         <v>1</v>
       </c>
@@ -671,15 +668,15 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -703,39 +700,2407 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>201</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1.5</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1.5</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>203</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1.5</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>204</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1.5</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>205</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1.5</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1.5</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1.5</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>208</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1.5</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>209</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1.5</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>210</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1.5</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>301</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.8</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>302</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.8</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>303</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.8</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>304</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.8</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>305</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.8</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>306</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.8</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>307</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.8</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>308</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.8</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>309</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>9</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.8</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>310</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.8</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>501</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>502</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>503</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>504</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>505</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>506</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>507</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>508</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>509</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>9</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>510</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>601</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>602</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>603</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>604</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>605</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>606</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>607</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>7</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>608</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>609</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>9</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>610</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>701</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>702</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>703</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>704</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>705</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>706</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>6</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>707</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>7</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>708</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>709</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>9</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>710</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>801</v>
+      </c>
+      <c r="B62" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>802</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>803</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>804</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>805</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
         <v>5</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>806</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>6</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>807</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>7</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>808</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>8</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>809</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>9</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>810</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>10</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>901</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>902</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>903</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>904</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>905</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>4</v>
+      </c>
+      <c r="M76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>906</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>907</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>7</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>908</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>8</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>909</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>9</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>910</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6437AB47-F872-40E0-B951-2401DCD99AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB1923E-6AB8-4164-B7D0-6182335EB8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="1224" windowWidth="19896" windowHeight="9888" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -104,6 +104,13 @@
   <si>
     <t>Prefabs/Game/Scene/Ingame_3d_009</t>
   </si>
+  <si>
+    <t>Prefabs/Game/Scene/Craft</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Kamado</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -170,8 +177,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:M81" totalsRowShown="0">
-  <autoFilter ref="A1:M81" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:M83" totalsRowShown="0">
+  <autoFilter ref="A1:M83" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
     <tableColumn id="2" xr3:uid="{AA5BE291-BCD0-4E9A-BE67-17FB70DBFC44}" name="ResourcePath"/>
@@ -488,21 +495,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.59765625" customWidth="1"/>
-    <col min="12" max="12" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>101</v>
       </c>
@@ -575,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>102</v>
       </c>
@@ -607,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>103</v>
       </c>
@@ -639,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>104</v>
       </c>
@@ -671,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>105</v>
       </c>
@@ -703,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>106</v>
       </c>
@@ -735,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>107</v>
       </c>
@@ -767,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>108</v>
       </c>
@@ -799,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>109</v>
       </c>
@@ -831,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>110</v>
       </c>
@@ -863,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>201</v>
       </c>
@@ -895,7 +902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>202</v>
       </c>
@@ -927,7 +934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>203</v>
       </c>
@@ -959,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>204</v>
       </c>
@@ -991,7 +998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>205</v>
       </c>
@@ -1023,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>206</v>
       </c>
@@ -1055,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>207</v>
       </c>
@@ -1087,7 +1094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>208</v>
       </c>
@@ -1119,7 +1126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>209</v>
       </c>
@@ -1151,7 +1158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>210</v>
       </c>
@@ -1183,7 +1190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>301</v>
       </c>
@@ -1215,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>302</v>
       </c>
@@ -1247,7 +1254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>303</v>
       </c>
@@ -1279,7 +1286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>304</v>
       </c>
@@ -1311,7 +1318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>305</v>
       </c>
@@ -1343,7 +1350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>306</v>
       </c>
@@ -1375,7 +1382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>307</v>
       </c>
@@ -1407,7 +1414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>308</v>
       </c>
@@ -1439,7 +1446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>309</v>
       </c>
@@ -1471,7 +1478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>310</v>
       </c>
@@ -1503,7 +1510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>501</v>
       </c>
@@ -1535,7 +1542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>502</v>
       </c>
@@ -1567,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>503</v>
       </c>
@@ -1599,7 +1606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>504</v>
       </c>
@@ -1631,7 +1638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>505</v>
       </c>
@@ -1663,7 +1670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>506</v>
       </c>
@@ -1695,7 +1702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>507</v>
       </c>
@@ -1727,7 +1734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>508</v>
       </c>
@@ -1759,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>509</v>
       </c>
@@ -1791,7 +1798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>510</v>
       </c>
@@ -1823,7 +1830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>601</v>
       </c>
@@ -1855,7 +1862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>602</v>
       </c>
@@ -1887,7 +1894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>603</v>
       </c>
@@ -1919,7 +1926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>604</v>
       </c>
@@ -1951,7 +1958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>605</v>
       </c>
@@ -1983,7 +1990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>606</v>
       </c>
@@ -2015,7 +2022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>607</v>
       </c>
@@ -2047,7 +2054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>608</v>
       </c>
@@ -2079,7 +2086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>609</v>
       </c>
@@ -2111,7 +2118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>610</v>
       </c>
@@ -2143,7 +2150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>701</v>
       </c>
@@ -2175,7 +2182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>702</v>
       </c>
@@ -2207,7 +2214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>703</v>
       </c>
@@ -2239,7 +2246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>704</v>
       </c>
@@ -2271,7 +2278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>705</v>
       </c>
@@ -2303,7 +2310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>706</v>
       </c>
@@ -2335,7 +2342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>707</v>
       </c>
@@ -2367,7 +2374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>708</v>
       </c>
@@ -2399,7 +2406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>709</v>
       </c>
@@ -2431,7 +2438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>710</v>
       </c>
@@ -2463,7 +2470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>801</v>
       </c>
@@ -2495,7 +2502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>802</v>
       </c>
@@ -2527,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>803</v>
       </c>
@@ -2559,7 +2566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>804</v>
       </c>
@@ -2591,7 +2598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>805</v>
       </c>
@@ -2623,7 +2630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>806</v>
       </c>
@@ -2655,7 +2662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>807</v>
       </c>
@@ -2687,7 +2694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>808</v>
       </c>
@@ -2719,7 +2726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>809</v>
       </c>
@@ -2751,7 +2758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>810</v>
       </c>
@@ -2783,7 +2790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>901</v>
       </c>
@@ -2815,7 +2822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>902</v>
       </c>
@@ -2847,7 +2854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>903</v>
       </c>
@@ -2879,7 +2886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>904</v>
       </c>
@@ -2911,7 +2918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>905</v>
       </c>
@@ -2943,7 +2950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>906</v>
       </c>
@@ -2975,7 +2982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>907</v>
       </c>
@@ -3007,7 +3014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>908</v>
       </c>
@@ -3039,7 +3046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>909</v>
       </c>
@@ -3071,7 +3078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>910</v>
       </c>
@@ -3101,6 +3108,82 @@
       </c>
       <c r="M81">
         <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>1000</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <v>1000</v>
+      </c>
+      <c r="D82">
+        <v>12</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>0.5</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>1001</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>1001</v>
+      </c>
+      <c r="D83">
+        <v>15</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>0.5</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB1923E-6AB8-4164-B7D0-6182335EB8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6437AB47-F872-40E0-B951-2401DCD99AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="576" yWindow="1224" windowWidth="19896" windowHeight="9888" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -104,13 +104,6 @@
   <si>
     <t>Prefabs/Game/Scene/Ingame_3d_009</t>
   </si>
-  <si>
-    <t>Prefabs/Game/Scene/Craft</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Kamado</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
@@ -177,8 +170,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:M83" totalsRowShown="0">
-  <autoFilter ref="A1:M83" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:M81" totalsRowShown="0">
+  <autoFilter ref="A1:M81" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
     <tableColumn id="2" xr3:uid="{AA5BE291-BCD0-4E9A-BE67-17FB70DBFC44}" name="ResourcePath"/>
@@ -495,21 +488,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" customWidth="1"/>
+    <col min="12" max="12" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>101</v>
       </c>
@@ -582,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>102</v>
       </c>
@@ -614,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>103</v>
       </c>
@@ -646,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>104</v>
       </c>
@@ -678,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>105</v>
       </c>
@@ -710,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>106</v>
       </c>
@@ -742,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>107</v>
       </c>
@@ -774,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>108</v>
       </c>
@@ -806,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>109</v>
       </c>
@@ -838,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>110</v>
       </c>
@@ -870,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>201</v>
       </c>
@@ -902,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>202</v>
       </c>
@@ -934,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>203</v>
       </c>
@@ -966,7 +959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>204</v>
       </c>
@@ -998,7 +991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>205</v>
       </c>
@@ -1030,7 +1023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>206</v>
       </c>
@@ -1062,7 +1055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>207</v>
       </c>
@@ -1094,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>208</v>
       </c>
@@ -1126,7 +1119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>209</v>
       </c>
@@ -1158,7 +1151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>210</v>
       </c>
@@ -1190,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>301</v>
       </c>
@@ -1222,7 +1215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>302</v>
       </c>
@@ -1254,7 +1247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>303</v>
       </c>
@@ -1286,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>304</v>
       </c>
@@ -1318,7 +1311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>305</v>
       </c>
@@ -1350,7 +1343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>306</v>
       </c>
@@ -1382,7 +1375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>307</v>
       </c>
@@ -1414,7 +1407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>308</v>
       </c>
@@ -1446,7 +1439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>309</v>
       </c>
@@ -1478,7 +1471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>310</v>
       </c>
@@ -1510,7 +1503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>501</v>
       </c>
@@ -1542,7 +1535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>502</v>
       </c>
@@ -1574,7 +1567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>503</v>
       </c>
@@ -1606,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>504</v>
       </c>
@@ -1638,7 +1631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>505</v>
       </c>
@@ -1670,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>506</v>
       </c>
@@ -1702,7 +1695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>507</v>
       </c>
@@ -1734,7 +1727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>508</v>
       </c>
@@ -1766,7 +1759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>509</v>
       </c>
@@ -1798,7 +1791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>510</v>
       </c>
@@ -1830,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>601</v>
       </c>
@@ -1862,7 +1855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>602</v>
       </c>
@@ -1894,7 +1887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>603</v>
       </c>
@@ -1926,7 +1919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>604</v>
       </c>
@@ -1958,7 +1951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>605</v>
       </c>
@@ -1990,7 +1983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>606</v>
       </c>
@@ -2022,7 +2015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>607</v>
       </c>
@@ -2054,7 +2047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>608</v>
       </c>
@@ -2086,7 +2079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>609</v>
       </c>
@@ -2118,7 +2111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>610</v>
       </c>
@@ -2150,7 +2143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>701</v>
       </c>
@@ -2182,7 +2175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>702</v>
       </c>
@@ -2214,7 +2207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>703</v>
       </c>
@@ -2246,7 +2239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>704</v>
       </c>
@@ -2278,7 +2271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>705</v>
       </c>
@@ -2310,7 +2303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>706</v>
       </c>
@@ -2342,7 +2335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>707</v>
       </c>
@@ -2374,7 +2367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>708</v>
       </c>
@@ -2406,7 +2399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>709</v>
       </c>
@@ -2438,7 +2431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>710</v>
       </c>
@@ -2470,7 +2463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>801</v>
       </c>
@@ -2502,7 +2495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>802</v>
       </c>
@@ -2534,7 +2527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>803</v>
       </c>
@@ -2566,7 +2559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>804</v>
       </c>
@@ -2598,7 +2591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>805</v>
       </c>
@@ -2630,7 +2623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>806</v>
       </c>
@@ -2662,7 +2655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>807</v>
       </c>
@@ -2694,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>808</v>
       </c>
@@ -2726,7 +2719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>809</v>
       </c>
@@ -2758,7 +2751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>810</v>
       </c>
@@ -2790,7 +2783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>901</v>
       </c>
@@ -2822,7 +2815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>902</v>
       </c>
@@ -2854,7 +2847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>903</v>
       </c>
@@ -2886,7 +2879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>904</v>
       </c>
@@ -2918,7 +2911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>905</v>
       </c>
@@ -2950,7 +2943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>906</v>
       </c>
@@ -2982,7 +2975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>907</v>
       </c>
@@ -3014,7 +3007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>908</v>
       </c>
@@ -3046,7 +3039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>909</v>
       </c>
@@ -3078,7 +3071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>910</v>
       </c>
@@ -3108,82 +3101,6 @@
       </c>
       <c r="M81">
         <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A82">
-        <v>1000</v>
-      </c>
-      <c r="B82" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82">
-        <v>1000</v>
-      </c>
-      <c r="D82">
-        <v>12</v>
-      </c>
-      <c r="E82">
-        <v>10</v>
-      </c>
-      <c r="G82">
-        <v>0.5</v>
-      </c>
-      <c r="H82">
-        <v>3</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A83">
-        <v>1001</v>
-      </c>
-      <c r="B83" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83">
-        <v>1001</v>
-      </c>
-      <c r="D83">
-        <v>15</v>
-      </c>
-      <c r="E83">
-        <v>10</v>
-      </c>
-      <c r="G83">
-        <v>0.5</v>
-      </c>
-      <c r="H83">
-        <v>3</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-      <c r="M83">
-        <v>1001</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB1923E-6AB8-4164-B7D0-6182335EB8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7BA5FB-C639-4896-8844-DBC6A39C5C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="5955" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BonusID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DestroyTime</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -109,6 +105,10 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/Kamado</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EntityId</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -181,6 +181,7 @@
   <autoFilter ref="A1:M83" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
+    <tableColumn id="8" xr3:uid="{C54D5108-9FC5-4C3D-B93F-615D58535805}" name="EntityId"/>
     <tableColumn id="2" xr3:uid="{AA5BE291-BCD0-4E9A-BE67-17FB70DBFC44}" name="ResourcePath"/>
     <tableColumn id="15" xr3:uid="{B471862D-6EED-46CF-A16B-021BC06A607A}" name="Type"/>
     <tableColumn id="3" xr3:uid="{930E2C0A-00D8-4B64-B1D2-FD607E2D5F67}" name="PosX"/>
@@ -192,7 +193,6 @@
     <tableColumn id="9" xr3:uid="{4D13EC1E-4A52-4CAF-AF95-E237F9000F4A}" name="Count"/>
     <tableColumn id="6" xr3:uid="{14B3D347-9CA9-43D5-B3CD-AD07FF367536}" name="CanBreak"/>
     <tableColumn id="7" xr3:uid="{12E6CEC8-667D-40C2-8234-FE31ED2097D2}" name="DestroyTime"/>
-    <tableColumn id="8" xr3:uid="{DDD25794-0B76-4758-9F44-7A6B2161BB6A}" name="BonusID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -497,16 +497,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
@@ -514,37 +513,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K1" t="s">
         <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
         <v>14</v>
@@ -554,20 +553,20 @@
       <c r="A2">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -586,26 +585,26 @@
       <c r="A3">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -618,26 +617,26 @@
       <c r="A4">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -650,26 +649,26 @@
       <c r="A5">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>4</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -682,26 +681,26 @@
       <c r="A6">
         <v>105</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>5</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -714,26 +713,26 @@
       <c r="A7">
         <v>106</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>6</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -746,26 +745,26 @@
       <c r="A8">
         <v>107</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>7</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -778,26 +777,26 @@
       <c r="A9">
         <v>108</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
         <v>8</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -810,26 +809,26 @@
       <c r="A10">
         <v>109</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>2000</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>9</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -842,26 +841,26 @@
       <c r="A11">
         <v>110</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>10</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -874,20 +873,20 @@
       <c r="A12">
         <v>201</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>2001</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -896,318 +895,318 @@
         <v>1</v>
       </c>
       <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>1.5</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>202</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>2001</v>
+      </c>
+      <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <v>1.5</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>203</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>2001</v>
+      </c>
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>1.5</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>204</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>2001</v>
+      </c>
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
         <v>4</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
       <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
         <v>1.5</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>205</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>2001</v>
+      </c>
+      <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
         <v>5</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>1.5</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>206</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>2001</v>
+      </c>
+      <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>6</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
       <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>1.5</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>207</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>2001</v>
+      </c>
+      <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
+      <c r="D18">
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
         <v>7</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
       <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>1.5</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>208</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>2001</v>
+      </c>
+      <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
+      <c r="D19">
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
         <v>8</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
       <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
         <v>1.5</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>209</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>2001</v>
+      </c>
+      <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
         <v>9</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
       <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
         <v>1.5</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>210</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>2001</v>
+      </c>
+      <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>10</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
         <v>1.5</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>301</v>
       </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
+      <c r="B22">
+        <v>2002</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1216,318 +1215,318 @@
         <v>1</v>
       </c>
       <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
         <v>0.8</v>
-      </c>
-      <c r="M22">
-        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>302</v>
       </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
+      <c r="B23">
+        <v>2002</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
         <v>0.8</v>
-      </c>
-      <c r="M23">
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>303</v>
       </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
+      <c r="B24">
+        <v>2002</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
         <v>0.8</v>
-      </c>
-      <c r="M24">
-        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>304</v>
       </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
+      <c r="B25">
+        <v>2002</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
         <v>4</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
       <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
         <v>0.8</v>
-      </c>
-      <c r="M25">
-        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>305</v>
       </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
+      <c r="B26">
+        <v>2002</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
         <v>5</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
       <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
         <v>0.8</v>
-      </c>
-      <c r="M26">
-        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>306</v>
       </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
+      <c r="B27">
+        <v>2002</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
         <v>6</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
       <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
         <v>0.8</v>
-      </c>
-      <c r="M27">
-        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>307</v>
       </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
+      <c r="B28">
+        <v>2002</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
         <v>7</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
       <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
         <v>0.8</v>
-      </c>
-      <c r="M28">
-        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>308</v>
       </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
+      <c r="B29">
+        <v>2002</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
         <v>8</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
       <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
         <v>0.8</v>
-      </c>
-      <c r="M29">
-        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>309</v>
       </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
+      <c r="B30">
+        <v>2002</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
         <v>9</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
       <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
         <v>0.8</v>
-      </c>
-      <c r="M30">
-        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>310</v>
       </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
+      <c r="B31">
+        <v>2002</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
         <v>10</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
       <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
         <v>0.8</v>
-      </c>
-      <c r="M31">
-        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>501</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>2003</v>
+      </c>
+      <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1536,318 +1535,318 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>502</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>2003</v>
+      </c>
+      <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>503</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>2003</v>
+      </c>
+      <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
+      <c r="D34">
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>504</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>2003</v>
+      </c>
+      <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
         <v>4</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
       <c r="L35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>505</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>2003</v>
+      </c>
+      <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
+      <c r="D36">
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
         <v>5</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>506</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <v>2003</v>
+      </c>
+      <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
+      <c r="D37">
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
         <v>6</v>
       </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
       <c r="L37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>507</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <v>2003</v>
+      </c>
+      <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
+      <c r="D38">
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
         <v>7</v>
       </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
       <c r="L38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>508</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>2003</v>
+      </c>
+      <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
+      <c r="D39">
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
         <v>8</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
       <c r="L39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>509</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>2003</v>
+      </c>
+      <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
         <v>9</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
       <c r="L40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>510</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>2003</v>
+      </c>
+      <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
+      <c r="D41">
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
         <v>10</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
       <c r="L41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>601</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <v>2004</v>
+      </c>
+      <c r="C42" t="s">
         <v>10</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
+      <c r="D42">
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -1856,318 +1855,318 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>602</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <v>2004</v>
+      </c>
+      <c r="C43" t="s">
         <v>10</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
+      <c r="D43">
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>603</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <v>2004</v>
+      </c>
+      <c r="C44" t="s">
         <v>10</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
+      <c r="D44">
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>604</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <v>2004</v>
+      </c>
+      <c r="C45" t="s">
         <v>10</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
+      <c r="D45">
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
         <v>4</v>
       </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
       <c r="L45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>605</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>2004</v>
+      </c>
+      <c r="C46" t="s">
         <v>10</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
+      <c r="D46">
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
         <v>5</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
       <c r="L46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>606</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <v>2004</v>
+      </c>
+      <c r="C47" t="s">
         <v>10</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
+      <c r="D47">
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
         <v>6</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
       <c r="L47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>607</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <v>2004</v>
+      </c>
+      <c r="C48" t="s">
         <v>10</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
+      <c r="D48">
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
         <v>7</v>
       </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
       <c r="L48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>608</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>2004</v>
+      </c>
+      <c r="C49" t="s">
         <v>10</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
+      <c r="D49">
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
         <v>8</v>
       </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
       <c r="L49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>609</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <v>2004</v>
+      </c>
+      <c r="C50" t="s">
         <v>10</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
+      <c r="D50">
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
         <v>9</v>
       </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
       <c r="L50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>610</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>2004</v>
+      </c>
+      <c r="C51" t="s">
         <v>10</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
+      <c r="D51">
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
         <v>10</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
       <c r="L51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>701</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52">
+        <v>2005</v>
+      </c>
+      <c r="C52" t="s">
         <v>11</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
+      <c r="D52">
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2176,318 +2175,318 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>702</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <v>2005</v>
+      </c>
+      <c r="C53" t="s">
         <v>11</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
+      <c r="D53">
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>703</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54">
+        <v>2005</v>
+      </c>
+      <c r="C54" t="s">
         <v>11</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
+      <c r="D54">
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>704</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55">
+        <v>2005</v>
+      </c>
+      <c r="C55" t="s">
         <v>11</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
+      <c r="D55">
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
         <v>4</v>
       </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
       <c r="L55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>705</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56">
+        <v>2005</v>
+      </c>
+      <c r="C56" t="s">
         <v>11</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
+      <c r="D56">
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
         <v>5</v>
       </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
       <c r="L56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>706</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57">
+        <v>2005</v>
+      </c>
+      <c r="C57" t="s">
         <v>11</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
+      <c r="D57">
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
         <v>6</v>
       </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
       <c r="L57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>707</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58">
+        <v>2005</v>
+      </c>
+      <c r="C58" t="s">
         <v>11</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
+      <c r="D58">
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
         <v>7</v>
       </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
       <c r="L58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>708</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59">
+        <v>2005</v>
+      </c>
+      <c r="C59" t="s">
         <v>11</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
+      <c r="D59">
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
         <v>8</v>
       </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
       <c r="L59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>709</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60">
+        <v>2005</v>
+      </c>
+      <c r="C60" t="s">
         <v>11</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
+      <c r="D60">
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
         <v>9</v>
       </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
       <c r="L60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>710</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61">
+        <v>2005</v>
+      </c>
+      <c r="C61" t="s">
         <v>11</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
+      <c r="D61">
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
         <v>10</v>
       </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
       <c r="L61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>801</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62">
+        <v>2006</v>
+      </c>
+      <c r="C62" t="s">
         <v>12</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
+      <c r="D62">
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -2496,318 +2495,318 @@
         <v>1</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>802</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63">
+        <v>2006</v>
+      </c>
+      <c r="C63" t="s">
         <v>12</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
+      <c r="D63">
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>803</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64">
+        <v>2006</v>
+      </c>
+      <c r="C64" t="s">
         <v>12</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
+      <c r="D64">
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>804</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65">
+        <v>2006</v>
+      </c>
+      <c r="C65" t="s">
         <v>12</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
+      <c r="D65">
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
         <v>4</v>
       </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
       <c r="L65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M65">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>805</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66">
+        <v>2006</v>
+      </c>
+      <c r="C66" t="s">
         <v>12</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
+      <c r="D66">
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
         <v>5</v>
       </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
       <c r="L66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>806</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67">
+        <v>2006</v>
+      </c>
+      <c r="C67" t="s">
         <v>12</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
+      <c r="D67">
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
         <v>6</v>
       </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
       <c r="L67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>807</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68">
+        <v>2006</v>
+      </c>
+      <c r="C68" t="s">
         <v>12</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
+      <c r="D68">
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
         <v>7</v>
       </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
       <c r="L68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>808</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69">
+        <v>2006</v>
+      </c>
+      <c r="C69" t="s">
         <v>12</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
+      <c r="D69">
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
         <v>8</v>
       </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
       <c r="L69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>809</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70">
+        <v>2006</v>
+      </c>
+      <c r="C70" t="s">
         <v>12</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
+      <c r="D70">
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
         <v>9</v>
       </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
       <c r="L70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>810</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71">
+        <v>2006</v>
+      </c>
+      <c r="C71" t="s">
         <v>12</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
+      <c r="D71">
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
         <v>10</v>
       </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
       <c r="L71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>901</v>
       </c>
-      <c r="B72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
+      <c r="B72">
+        <v>2007</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -2816,324 +2815,324 @@
         <v>1</v>
       </c>
       <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
         <v>4</v>
-      </c>
-      <c r="M72">
-        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>902</v>
       </c>
-      <c r="B73" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
+      <c r="B73">
+        <v>2007</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
         <v>4</v>
-      </c>
-      <c r="M73">
-        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>903</v>
       </c>
-      <c r="B74" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
+      <c r="B74">
+        <v>2007</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
         <v>4</v>
-      </c>
-      <c r="M74">
-        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>904</v>
       </c>
-      <c r="B75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
+      <c r="B75">
+        <v>2007</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
         <v>4</v>
       </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
       <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
         <v>4</v>
-      </c>
-      <c r="M75">
-        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>905</v>
       </c>
-      <c r="B76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
+      <c r="B76">
+        <v>2007</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
         <v>5</v>
       </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
       <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
         <v>4</v>
-      </c>
-      <c r="M76">
-        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>906</v>
       </c>
-      <c r="B77" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
+      <c r="B77">
+        <v>2007</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
         <v>6</v>
       </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
       <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
         <v>4</v>
-      </c>
-      <c r="M77">
-        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>907</v>
       </c>
-      <c r="B78" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
+      <c r="B78">
+        <v>2007</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
         <v>7</v>
       </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
       <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
         <v>4</v>
-      </c>
-      <c r="M78">
-        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>908</v>
       </c>
-      <c r="B79" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
+      <c r="B79">
+        <v>2007</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
         <v>8</v>
       </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
       <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
         <v>4</v>
-      </c>
-      <c r="M79">
-        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>909</v>
       </c>
-      <c r="B80" t="s">
-        <v>20</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
+      <c r="B80">
+        <v>2007</v>
+      </c>
+      <c r="C80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
         <v>9</v>
       </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
       <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
         <v>4</v>
-      </c>
-      <c r="M80">
-        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>910</v>
       </c>
-      <c r="B81" t="s">
-        <v>20</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
+      <c r="B81">
+        <v>2007</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
         <v>10</v>
       </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
       <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
         <v>4</v>
-      </c>
-      <c r="M81">
-        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>1000</v>
       </c>
-      <c r="B82" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82">
+      <c r="B82">
+        <v>5000</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82">
         <v>1000</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>12</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>10</v>
       </c>
-      <c r="G82">
-        <v>0.5</v>
-      </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -3145,33 +3144,33 @@
         <v>1</v>
       </c>
       <c r="M82">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>1001</v>
       </c>
-      <c r="B83" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83">
+      <c r="B83">
+        <v>5001</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83">
         <v>1001</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>15</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>10</v>
       </c>
-      <c r="G83">
-        <v>0.5</v>
-      </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -3183,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="M83">
-        <v>1001</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B98B76-FC21-4E8C-B174-DD2A30D65EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501D5AE9-BC42-413A-BED3-E8B32A9C9823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="設定ファイル" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -62,12 +63,163 @@
     <t>Percent</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>マップに生成するEntityの設定ファイル</t>
+    <rPh sb="4" eb="6">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PosX、Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンティティのID（Entity設定ファイルID）</t>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成する座標、設定がない場合ランダムで生成</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今は使ってません</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成した場合、Y座標の調整（モデルのY座標が0の場合、地下に入る、空に飛ぶことがあるので）</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ外に生成されない為の制限（３を設定すると、マップ周りから３ブロック以内に生成されない）</t>
+    <rPh sb="3" eb="4">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成される数</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成されるパーセント（Count＝10、Percen＝50の場合　５個ぐらい生成される、宝ボックスの為）</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,21 +235,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -106,8 +310,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,10 +658,10 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K78" sqref="K78"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2205,4 +2418,109 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12177118-4A35-42C1-BCC2-8E61EB2FD6B7}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501D5AE9-BC42-413A-BED3-E8B32A9C9823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B281B8-9407-4F88-B455-A77D6C5098BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,8 +341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I86" totalsRowShown="0">
-  <autoFilter ref="A1:I86" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I88" totalsRowShown="0">
+  <autoFilter ref="A1:I88" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
     <tableColumn id="8" xr3:uid="{C54D5108-9FC5-4C3D-B93F-615D58535805}" name="EntityId"/>
@@ -655,13 +655,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2408,6 +2408,46 @@
       </c>
       <c r="I86">
         <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>10000</v>
+      </c>
+      <c r="B87">
+        <v>1500</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>300</v>
+      </c>
+      <c r="I87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>10001</v>
+      </c>
+      <c r="B88">
+        <v>1501</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>30</v>
+      </c>
+      <c r="I88">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B281B8-9407-4F88-B455-A77D6C5098BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8799379D-DC6A-4722-8033-BD18BEF42B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="24525" windowHeight="12975" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,8 +341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I88" totalsRowShown="0">
-  <autoFilter ref="A1:I88" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I98" totalsRowShown="0">
+  <autoFilter ref="A1:I98" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
     <tableColumn id="8" xr3:uid="{C54D5108-9FC5-4C3D-B93F-615D58535805}" name="EntityId"/>
@@ -655,13 +655,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L84" sqref="L84"/>
+      <selection pane="bottomRight" activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -706,7 +706,7 @@
         <v>2000</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -726,7 +726,7 @@
         <v>2000</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -746,7 +746,7 @@
         <v>2000</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -766,7 +766,7 @@
         <v>2000</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -786,7 +786,7 @@
         <v>2000</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -806,7 +806,7 @@
         <v>2000</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -826,7 +826,7 @@
         <v>2000</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -846,7 +846,7 @@
         <v>2000</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -866,7 +866,7 @@
         <v>2000</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -886,7 +886,7 @@
         <v>2000</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -906,7 +906,7 @@
         <v>2001</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -926,7 +926,7 @@
         <v>2001</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -946,7 +946,7 @@
         <v>2001</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -966,7 +966,7 @@
         <v>2001</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -986,7 +986,7 @@
         <v>2001</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1006,7 +1006,7 @@
         <v>2001</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1026,7 +1026,7 @@
         <v>2001</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1046,7 +1046,7 @@
         <v>2001</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -1066,7 +1066,7 @@
         <v>2001</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -1086,7 +1086,7 @@
         <v>2001</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1106,7 +1106,7 @@
         <v>2002</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1126,7 +1126,7 @@
         <v>2002</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -1146,7 +1146,7 @@
         <v>2002</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1166,7 +1166,7 @@
         <v>2002</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -1186,7 +1186,7 @@
         <v>2002</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1206,7 +1206,7 @@
         <v>2002</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -1226,7 +1226,7 @@
         <v>2002</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1246,7 +1246,7 @@
         <v>2002</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1266,7 +1266,7 @@
         <v>2002</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -1286,7 +1286,7 @@
         <v>2002</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -1306,7 +1306,7 @@
         <v>2003</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1326,7 +1326,7 @@
         <v>2003</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -1346,7 +1346,7 @@
         <v>2003</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -1366,7 +1366,7 @@
         <v>2003</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -1386,7 +1386,7 @@
         <v>2003</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -1406,7 +1406,7 @@
         <v>2003</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -1426,7 +1426,7 @@
         <v>2003</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -1446,7 +1446,7 @@
         <v>2003</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -1466,7 +1466,7 @@
         <v>2003</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -1486,7 +1486,7 @@
         <v>2003</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -1506,7 +1506,7 @@
         <v>2004</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -1526,7 +1526,7 @@
         <v>2004</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -1546,7 +1546,7 @@
         <v>2004</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -1566,7 +1566,7 @@
         <v>2004</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -1586,7 +1586,7 @@
         <v>2004</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -1606,7 +1606,7 @@
         <v>2004</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -1626,7 +1626,7 @@
         <v>2004</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -1646,7 +1646,7 @@
         <v>2004</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -1666,7 +1666,7 @@
         <v>2004</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -1686,7 +1686,7 @@
         <v>2004</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -1706,7 +1706,7 @@
         <v>2005</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -1726,7 +1726,7 @@
         <v>2005</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -1746,7 +1746,7 @@
         <v>2005</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -1766,7 +1766,7 @@
         <v>2005</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -1786,7 +1786,7 @@
         <v>2005</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -1806,7 +1806,7 @@
         <v>2005</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -1826,7 +1826,7 @@
         <v>2005</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -1846,7 +1846,7 @@
         <v>2005</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -1866,7 +1866,7 @@
         <v>2005</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -1886,7 +1886,7 @@
         <v>2005</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -1906,7 +1906,7 @@
         <v>2006</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -1926,7 +1926,7 @@
         <v>2006</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>3</v>
@@ -1946,7 +1946,7 @@
         <v>2006</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>2006</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -1986,7 +1986,7 @@
         <v>2006</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -2006,7 +2006,7 @@
         <v>2006</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -2026,7 +2026,7 @@
         <v>2006</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -2046,7 +2046,7 @@
         <v>2006</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -2066,7 +2066,7 @@
         <v>2006</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>3</v>
@@ -2086,7 +2086,7 @@
         <v>2006</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -2106,7 +2106,7 @@
         <v>2007</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -2126,7 +2126,7 @@
         <v>2007</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -2146,7 +2146,7 @@
         <v>2007</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -2166,7 +2166,7 @@
         <v>2007</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -2186,7 +2186,7 @@
         <v>2007</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -2206,7 +2206,7 @@
         <v>2007</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -2226,7 +2226,7 @@
         <v>2007</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -2246,7 +2246,7 @@
         <v>2007</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -2266,7 +2266,7 @@
         <v>2007</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -2286,7 +2286,7 @@
         <v>2007</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -2312,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -2338,7 +2338,7 @@
         <v>10</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -2358,7 +2358,7 @@
         <v>2100</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -2378,7 +2378,7 @@
         <v>2101</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -2398,7 +2398,7 @@
         <v>2102</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -2418,13 +2418,13 @@
         <v>1500</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>3</v>
       </c>
       <c r="H87">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I87">
         <v>100</v>
@@ -2438,7 +2438,7 @@
         <v>1501</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -2447,6 +2447,206 @@
         <v>30</v>
       </c>
       <c r="I88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>10002</v>
+      </c>
+      <c r="B89">
+        <v>1502</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>30</v>
+      </c>
+      <c r="I89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>10003</v>
+      </c>
+      <c r="B90">
+        <v>1503</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>30</v>
+      </c>
+      <c r="I90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>10004</v>
+      </c>
+      <c r="B91">
+        <v>1504</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>30</v>
+      </c>
+      <c r="I91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>10005</v>
+      </c>
+      <c r="B92">
+        <v>1505</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>30</v>
+      </c>
+      <c r="I92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>10006</v>
+      </c>
+      <c r="B93">
+        <v>1506</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>30</v>
+      </c>
+      <c r="I93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>10007</v>
+      </c>
+      <c r="B94">
+        <v>1507</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>30</v>
+      </c>
+      <c r="I94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>10008</v>
+      </c>
+      <c r="B95">
+        <v>1508</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>30</v>
+      </c>
+      <c r="I95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>10009</v>
+      </c>
+      <c r="B96">
+        <v>1509</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>30</v>
+      </c>
+      <c r="I96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>11500</v>
+      </c>
+      <c r="B97">
+        <v>1550</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>10</v>
+      </c>
+      <c r="I97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>11000</v>
+      </c>
+      <c r="B98">
+        <v>1600</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>200</v>
+      </c>
+      <c r="I98">
         <v>100</v>
       </c>
     </row>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8799379D-DC6A-4722-8033-BD18BEF42B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D6578-5638-4572-9E19-821273E3F650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24525" windowHeight="12975" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="2400" yWindow="3435" windowWidth="24525" windowHeight="12975" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -658,10 +658,10 @@
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J98" sqref="J98"/>
+      <selection pane="bottomRight" activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2424,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="H87">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I87">
         <v>100</v>
@@ -2444,7 +2444,7 @@
         <v>3</v>
       </c>
       <c r="H88">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I88">
         <v>100</v>
@@ -2464,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="H89">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I89">
         <v>100</v>
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="H90">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I90">
         <v>100</v>
@@ -2504,7 +2504,7 @@
         <v>3</v>
       </c>
       <c r="H91">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I91">
         <v>100</v>
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="H92">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I92">
         <v>100</v>
@@ -2544,7 +2544,7 @@
         <v>3</v>
       </c>
       <c r="H93">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I93">
         <v>100</v>
@@ -2564,7 +2564,7 @@
         <v>3</v>
       </c>
       <c r="H94">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I94">
         <v>100</v>
@@ -2584,7 +2584,7 @@
         <v>3</v>
       </c>
       <c r="H95">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I95">
         <v>100</v>
@@ -2604,7 +2604,7 @@
         <v>3</v>
       </c>
       <c r="H96">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I96">
         <v>100</v>
@@ -2644,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="H98">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="I98">
         <v>100</v>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D6578-5638-4572-9E19-821273E3F650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B5173E-6E2E-4137-92AB-9B19C6006E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="3435" windowWidth="24525" windowHeight="12975" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -341,8 +350,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I98" totalsRowShown="0">
-  <autoFilter ref="A1:I98" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I103" totalsRowShown="0">
+  <autoFilter ref="A1:I103" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
     <tableColumn id="8" xr3:uid="{C54D5108-9FC5-4C3D-B93F-615D58535805}" name="EntityId"/>
@@ -655,13 +664,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K94" sqref="K94"/>
+      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2412,10 +2421,16 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>10000</v>
+        <v>6001</v>
       </c>
       <c r="B87">
-        <v>1500</v>
+        <v>6001</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>15</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2424,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>100</v>
@@ -2432,10 +2447,16 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>10001</v>
+        <v>6002</v>
       </c>
       <c r="B88">
-        <v>1501</v>
+        <v>6002</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>18</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2444,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>100</v>
@@ -2452,10 +2473,16 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>10002</v>
+        <v>6003</v>
       </c>
       <c r="B89">
-        <v>1502</v>
+        <v>6003</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>21</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2464,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>100</v>
@@ -2472,10 +2499,16 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>10003</v>
+        <v>6004</v>
       </c>
       <c r="B90">
-        <v>1503</v>
+        <v>6004</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>24</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2484,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>100</v>
@@ -2492,10 +2525,16 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>10004</v>
+        <v>6005</v>
       </c>
       <c r="B91">
-        <v>1504</v>
+        <v>6005</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>27</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2504,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>100</v>
@@ -2512,10 +2551,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>10005</v>
+        <v>10000</v>
       </c>
       <c r="B92">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2532,10 +2571,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>10006</v>
+        <v>10001</v>
       </c>
       <c r="B93">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2552,10 +2591,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>10007</v>
+        <v>10002</v>
       </c>
       <c r="B94">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2572,10 +2611,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>10008</v>
+        <v>10003</v>
       </c>
       <c r="B95">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2592,10 +2631,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>10009</v>
+        <v>10004</v>
       </c>
       <c r="B96">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2612,10 +2651,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>11500</v>
+        <v>10005</v>
       </c>
       <c r="B97">
-        <v>1550</v>
+        <v>1505</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2624,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="H97">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I97">
         <v>100</v>
@@ -2632,21 +2671,121 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98">
+        <v>10006</v>
+      </c>
+      <c r="B98">
+        <v>1506</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>10007</v>
+      </c>
+      <c r="B99">
+        <v>1507</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="I99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>10008</v>
+      </c>
+      <c r="B100">
+        <v>1508</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
+      </c>
+      <c r="I100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>10009</v>
+      </c>
+      <c r="B101">
+        <v>1509</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>11500</v>
+      </c>
+      <c r="B102">
+        <v>1550</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>10</v>
+      </c>
+      <c r="I102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A103">
         <v>11000</v>
       </c>
-      <c r="B98">
+      <c r="B103">
         <v>1600</v>
       </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>3</v>
-      </c>
-      <c r="H98">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
         <v>10</v>
       </c>
-      <c r="I98">
+      <c r="I103">
         <v>100</v>
       </c>
     </row>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B5173E-6E2E-4137-92AB-9B19C6006E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C272AEFB-4D61-48C5-A85A-F552B863C868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="1830" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,10 +667,10 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
+      <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2453,10 +2453,10 @@
         <v>6002</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D88">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2479,10 +2479,10 @@
         <v>6003</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D89">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2505,10 +2505,10 @@
         <v>6004</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D90">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2531,10 +2531,10 @@
         <v>6005</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D91">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F91">
         <v>0</v>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C272AEFB-4D61-48C5-A85A-F552B863C868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880899BE-57CD-4BB0-A2BC-40B026130CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="11490" yWindow="420" windowWidth="17055" windowHeight="14760" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -350,8 +350,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I103" totalsRowShown="0">
-  <autoFilter ref="A1:I103" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I174" totalsRowShown="0">
+  <autoFilter ref="A1:I174" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
     <tableColumn id="8" xr3:uid="{C54D5108-9FC5-4C3D-B93F-615D58535805}" name="EntityId"/>
@@ -664,13 +664,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
+      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2427,10 +2427,10 @@
         <v>6001</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D87">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>6002</v>
       </c>
       <c r="C88">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D88">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2479,10 +2479,10 @@
         <v>6003</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D89">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2505,10 +2505,10 @@
         <v>6004</v>
       </c>
       <c r="C90">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D90">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2531,10 +2531,10 @@
         <v>6005</v>
       </c>
       <c r="C91">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D91">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2551,10 +2551,16 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>10000</v>
+        <v>7001</v>
       </c>
       <c r="B92">
-        <v>1500</v>
+        <v>8041</v>
+      </c>
+      <c r="C92">
+        <v>23</v>
+      </c>
+      <c r="D92">
+        <v>27</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2563,7 +2569,7 @@
         <v>3</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>100</v>
@@ -2571,10 +2577,16 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>10001</v>
+        <v>7002</v>
       </c>
       <c r="B93">
-        <v>1501</v>
+        <v>8042</v>
+      </c>
+      <c r="C93">
+        <v>30</v>
+      </c>
+      <c r="D93">
+        <v>27</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2583,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>100</v>
@@ -2591,10 +2603,16 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>10002</v>
+        <v>7003</v>
       </c>
       <c r="B94">
-        <v>1502</v>
+        <v>8043</v>
+      </c>
+      <c r="C94">
+        <v>19</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2603,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="H94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>100</v>
@@ -2611,10 +2629,16 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>10003</v>
+        <v>7004</v>
       </c>
       <c r="B95">
-        <v>1503</v>
+        <v>8044</v>
+      </c>
+      <c r="C95">
+        <v>37</v>
+      </c>
+      <c r="D95">
+        <v>26</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2623,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>100</v>
@@ -2631,10 +2655,16 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>10004</v>
+        <v>7005</v>
       </c>
       <c r="B96">
-        <v>1504</v>
+        <v>8045</v>
+      </c>
+      <c r="C96">
+        <v>40</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2643,7 +2673,7 @@
         <v>3</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>100</v>
@@ -2651,10 +2681,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>10005</v>
+        <v>10000</v>
       </c>
       <c r="B97">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2671,10 +2701,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>10006</v>
+        <v>10001</v>
       </c>
       <c r="B98">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2691,10 +2721,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>10007</v>
+        <v>10002</v>
       </c>
       <c r="B99">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2711,10 +2741,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>10008</v>
+        <v>10003</v>
       </c>
       <c r="B100">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2731,10 +2761,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>10009</v>
+        <v>10004</v>
       </c>
       <c r="B101">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2751,10 +2781,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>11500</v>
+        <v>10005</v>
       </c>
       <c r="B102">
-        <v>1550</v>
+        <v>1505</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2763,7 +2793,7 @@
         <v>3</v>
       </c>
       <c r="H102">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I102">
         <v>100</v>
@@ -2771,21 +2801,1837 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103">
+        <v>10006</v>
+      </c>
+      <c r="B103">
+        <v>1506</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
+      <c r="I103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>10007</v>
+      </c>
+      <c r="B104">
+        <v>1507</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>5</v>
+      </c>
+      <c r="I104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>10008</v>
+      </c>
+      <c r="B105">
+        <v>1508</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>5</v>
+      </c>
+      <c r="I105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>10009</v>
+      </c>
+      <c r="B106">
+        <v>1509</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="I106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>11500</v>
+      </c>
+      <c r="B107">
+        <v>1550</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>10</v>
+      </c>
+      <c r="I107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A108">
         <v>11000</v>
       </c>
-      <c r="B103">
+      <c r="B108">
         <v>1600</v>
       </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>3</v>
-      </c>
-      <c r="H103">
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
         <v>10</v>
       </c>
-      <c r="I103">
+      <c r="I108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>11100</v>
+      </c>
+      <c r="B109">
+        <v>8013</v>
+      </c>
+      <c r="C109">
+        <v>32</v>
+      </c>
+      <c r="D109">
+        <v>42</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>11101</v>
+      </c>
+      <c r="B110">
+        <v>8020</v>
+      </c>
+      <c r="C110">
+        <v>22</v>
+      </c>
+      <c r="D110">
+        <v>35</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>11102</v>
+      </c>
+      <c r="B111">
+        <v>8020</v>
+      </c>
+      <c r="C111">
+        <v>23</v>
+      </c>
+      <c r="D111">
+        <v>35</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>11103</v>
+      </c>
+      <c r="B112">
+        <v>8020</v>
+      </c>
+      <c r="C112">
+        <v>24</v>
+      </c>
+      <c r="D112">
+        <v>35</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>11104</v>
+      </c>
+      <c r="B113">
+        <v>8020</v>
+      </c>
+      <c r="C113">
+        <v>25</v>
+      </c>
+      <c r="D113">
+        <v>35</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>11105</v>
+      </c>
+      <c r="B114">
+        <v>8020</v>
+      </c>
+      <c r="C114">
+        <v>26</v>
+      </c>
+      <c r="D114">
+        <v>35</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>11106</v>
+      </c>
+      <c r="B115">
+        <v>8020</v>
+      </c>
+      <c r="C115">
+        <v>27</v>
+      </c>
+      <c r="D115">
+        <v>35</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>11107</v>
+      </c>
+      <c r="B116">
+        <v>8020</v>
+      </c>
+      <c r="C116">
+        <v>28</v>
+      </c>
+      <c r="D116">
+        <v>35</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>11108</v>
+      </c>
+      <c r="B117">
+        <v>8020</v>
+      </c>
+      <c r="C117">
+        <v>29</v>
+      </c>
+      <c r="D117">
+        <v>35</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>11109</v>
+      </c>
+      <c r="B118">
+        <v>8020</v>
+      </c>
+      <c r="C118">
+        <v>30</v>
+      </c>
+      <c r="D118">
+        <v>35</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>11110</v>
+      </c>
+      <c r="B119">
+        <v>8020</v>
+      </c>
+      <c r="C119">
+        <v>31</v>
+      </c>
+      <c r="D119">
+        <v>35</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>11111</v>
+      </c>
+      <c r="B120">
+        <v>8020</v>
+      </c>
+      <c r="C120">
+        <v>32</v>
+      </c>
+      <c r="D120">
+        <v>35</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>11112</v>
+      </c>
+      <c r="B121">
+        <v>8020</v>
+      </c>
+      <c r="C121">
+        <v>33</v>
+      </c>
+      <c r="D121">
+        <v>35</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>11113</v>
+      </c>
+      <c r="B122">
+        <v>8020</v>
+      </c>
+      <c r="C122">
+        <v>34</v>
+      </c>
+      <c r="D122">
+        <v>35</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>11114</v>
+      </c>
+      <c r="B123">
+        <v>8020</v>
+      </c>
+      <c r="C123">
+        <v>35</v>
+      </c>
+      <c r="D123">
+        <v>35</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>11115</v>
+      </c>
+      <c r="B124">
+        <v>8020</v>
+      </c>
+      <c r="C124">
+        <v>36</v>
+      </c>
+      <c r="D124">
+        <v>35</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>11116</v>
+      </c>
+      <c r="B125">
+        <v>8020</v>
+      </c>
+      <c r="C125">
+        <v>37</v>
+      </c>
+      <c r="D125">
+        <v>35</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>11117</v>
+      </c>
+      <c r="B126">
+        <v>8020</v>
+      </c>
+      <c r="C126">
+        <v>38</v>
+      </c>
+      <c r="D126">
+        <v>35</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>11118</v>
+      </c>
+      <c r="B127">
+        <v>8020</v>
+      </c>
+      <c r="C127">
+        <v>39</v>
+      </c>
+      <c r="D127">
+        <v>35</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>11119</v>
+      </c>
+      <c r="B128">
+        <v>8020</v>
+      </c>
+      <c r="C128">
+        <v>40</v>
+      </c>
+      <c r="D128">
+        <v>35</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>11120</v>
+      </c>
+      <c r="B129">
+        <v>8020</v>
+      </c>
+      <c r="C129">
+        <v>41</v>
+      </c>
+      <c r="D129">
+        <v>34</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>11121</v>
+      </c>
+      <c r="B130">
+        <v>8020</v>
+      </c>
+      <c r="C130">
+        <v>42</v>
+      </c>
+      <c r="D130">
+        <v>34</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>11122</v>
+      </c>
+      <c r="B131">
+        <v>8020</v>
+      </c>
+      <c r="C131">
+        <v>23</v>
+      </c>
+      <c r="D131">
+        <v>9</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>3</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>11123</v>
+      </c>
+      <c r="B132">
+        <v>8020</v>
+      </c>
+      <c r="C132">
+        <v>24</v>
+      </c>
+      <c r="D132">
+        <v>9</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>11124</v>
+      </c>
+      <c r="B133">
+        <v>8020</v>
+      </c>
+      <c r="C133">
+        <v>25</v>
+      </c>
+      <c r="D133">
+        <v>9</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>11125</v>
+      </c>
+      <c r="B134">
+        <v>8020</v>
+      </c>
+      <c r="C134">
+        <v>26</v>
+      </c>
+      <c r="D134">
+        <v>9</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>11126</v>
+      </c>
+      <c r="B135">
+        <v>8020</v>
+      </c>
+      <c r="C135">
+        <v>27</v>
+      </c>
+      <c r="D135">
+        <v>9</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>11127</v>
+      </c>
+      <c r="B136">
+        <v>8020</v>
+      </c>
+      <c r="C136">
+        <v>28</v>
+      </c>
+      <c r="D136">
+        <v>9</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>3</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>11128</v>
+      </c>
+      <c r="B137">
+        <v>8020</v>
+      </c>
+      <c r="C137">
+        <v>29</v>
+      </c>
+      <c r="D137">
+        <v>9</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>11129</v>
+      </c>
+      <c r="B138">
+        <v>8020</v>
+      </c>
+      <c r="C138">
+        <v>30</v>
+      </c>
+      <c r="D138">
+        <v>9</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>3</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>11130</v>
+      </c>
+      <c r="B139">
+        <v>8020</v>
+      </c>
+      <c r="C139">
+        <v>31</v>
+      </c>
+      <c r="D139">
+        <v>9</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>11131</v>
+      </c>
+      <c r="B140">
+        <v>8020</v>
+      </c>
+      <c r="C140">
+        <v>32</v>
+      </c>
+      <c r="D140">
+        <v>9</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>3</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>11132</v>
+      </c>
+      <c r="B141">
+        <v>8020</v>
+      </c>
+      <c r="C141">
+        <v>33</v>
+      </c>
+      <c r="D141">
+        <v>9</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>11133</v>
+      </c>
+      <c r="B142">
+        <v>8020</v>
+      </c>
+      <c r="C142">
+        <v>34</v>
+      </c>
+      <c r="D142">
+        <v>9</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>11134</v>
+      </c>
+      <c r="B143">
+        <v>8020</v>
+      </c>
+      <c r="C143">
+        <v>35</v>
+      </c>
+      <c r="D143">
+        <v>9</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>3</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>11135</v>
+      </c>
+      <c r="B144">
+        <v>8020</v>
+      </c>
+      <c r="C144">
+        <v>36</v>
+      </c>
+      <c r="D144">
+        <v>9</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>11136</v>
+      </c>
+      <c r="B145">
+        <v>8020</v>
+      </c>
+      <c r="C145">
+        <v>37</v>
+      </c>
+      <c r="D145">
+        <v>9</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>3</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>11137</v>
+      </c>
+      <c r="B146">
+        <v>8020</v>
+      </c>
+      <c r="C146">
+        <v>38</v>
+      </c>
+      <c r="D146">
+        <v>9</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>3</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>11138</v>
+      </c>
+      <c r="B147">
+        <v>8020</v>
+      </c>
+      <c r="C147">
+        <v>39</v>
+      </c>
+      <c r="D147">
+        <v>9</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>11139</v>
+      </c>
+      <c r="B148">
+        <v>8020</v>
+      </c>
+      <c r="C148">
+        <v>40</v>
+      </c>
+      <c r="D148">
+        <v>9</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>11140</v>
+      </c>
+      <c r="B149">
+        <v>8020</v>
+      </c>
+      <c r="C149">
+        <v>41</v>
+      </c>
+      <c r="D149">
+        <v>10</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>11141</v>
+      </c>
+      <c r="B150">
+        <v>8020</v>
+      </c>
+      <c r="C150">
+        <v>42</v>
+      </c>
+      <c r="D150">
+        <v>11</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>3</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>11142</v>
+      </c>
+      <c r="B151">
+        <v>8020</v>
+      </c>
+      <c r="C151">
+        <v>43</v>
+      </c>
+      <c r="D151">
+        <v>12</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>11143</v>
+      </c>
+      <c r="B152">
+        <v>8020</v>
+      </c>
+      <c r="C152">
+        <v>44</v>
+      </c>
+      <c r="D152">
+        <v>13</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>3</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>11144</v>
+      </c>
+      <c r="B153">
+        <v>8030</v>
+      </c>
+      <c r="C153">
+        <v>25</v>
+      </c>
+      <c r="D153">
+        <v>34</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>11145</v>
+      </c>
+      <c r="B154">
+        <v>8030</v>
+      </c>
+      <c r="C154">
+        <v>38</v>
+      </c>
+      <c r="D154">
+        <v>34</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>11146</v>
+      </c>
+      <c r="B155">
+        <v>8030</v>
+      </c>
+      <c r="C155">
+        <v>16</v>
+      </c>
+      <c r="D155">
+        <v>29</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>3</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>11147</v>
+      </c>
+      <c r="B156">
+        <v>8030</v>
+      </c>
+      <c r="C156">
+        <v>43</v>
+      </c>
+      <c r="D156">
+        <v>18</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>3</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>11148</v>
+      </c>
+      <c r="B157">
+        <v>8003</v>
+      </c>
+      <c r="C157">
+        <v>20</v>
+      </c>
+      <c r="D157">
+        <v>42</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+      <c r="G157">
+        <v>3</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>11149</v>
+      </c>
+      <c r="B158">
+        <v>8003</v>
+      </c>
+      <c r="C158">
+        <v>12</v>
+      </c>
+      <c r="D158">
+        <v>40</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>11150</v>
+      </c>
+      <c r="B159">
+        <v>8003</v>
+      </c>
+      <c r="C159">
+        <v>5</v>
+      </c>
+      <c r="D159">
+        <v>38</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <v>3</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>11151</v>
+      </c>
+      <c r="B160">
+        <v>8003</v>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+      <c r="D160">
+        <v>27</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>11152</v>
+      </c>
+      <c r="B161">
+        <v>8003</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+      <c r="D161">
+        <v>20</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <v>3</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>11153</v>
+      </c>
+      <c r="B162">
+        <v>8003</v>
+      </c>
+      <c r="C162">
+        <v>5</v>
+      </c>
+      <c r="D162">
+        <v>10</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>11154</v>
+      </c>
+      <c r="B163">
+        <v>8003</v>
+      </c>
+      <c r="C163">
+        <v>10</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>11155</v>
+      </c>
+      <c r="B164">
+        <v>8003</v>
+      </c>
+      <c r="C164">
+        <v>55</v>
+      </c>
+      <c r="D164">
+        <v>45</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>11156</v>
+      </c>
+      <c r="B165">
+        <v>8003</v>
+      </c>
+      <c r="C165">
+        <v>51</v>
+      </c>
+      <c r="D165">
+        <v>25</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>11157</v>
+      </c>
+      <c r="B166">
+        <v>8003</v>
+      </c>
+      <c r="C166">
+        <v>55</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="F166">
+        <v>2</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>11158</v>
+      </c>
+      <c r="B167">
+        <v>8005</v>
+      </c>
+      <c r="C167">
+        <v>45</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
+      </c>
+      <c r="F167">
+        <v>2</v>
+      </c>
+      <c r="G167">
+        <v>3</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>11159</v>
+      </c>
+      <c r="B168">
+        <v>8005</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168">
+        <v>10</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
+      </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>11160</v>
+      </c>
+      <c r="B169">
+        <v>8005</v>
+      </c>
+      <c r="C169">
+        <v>55</v>
+      </c>
+      <c r="D169">
+        <v>6</v>
+      </c>
+      <c r="F169">
+        <v>2</v>
+      </c>
+      <c r="G169">
+        <v>3</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>11161</v>
+      </c>
+      <c r="B170">
+        <v>8005</v>
+      </c>
+      <c r="C170">
+        <v>51</v>
+      </c>
+      <c r="D170">
+        <v>20</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>3</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>11162</v>
+      </c>
+      <c r="B171">
+        <v>8005</v>
+      </c>
+      <c r="C171">
+        <v>50</v>
+      </c>
+      <c r="D171">
+        <v>45</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>11163</v>
+      </c>
+      <c r="B172">
+        <v>8005</v>
+      </c>
+      <c r="C172">
+        <v>25</v>
+      </c>
+      <c r="D172">
+        <v>45</v>
+      </c>
+      <c r="F172">
+        <v>2</v>
+      </c>
+      <c r="G172">
+        <v>3</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>11164</v>
+      </c>
+      <c r="B173">
+        <v>8005</v>
+      </c>
+      <c r="C173">
+        <v>20</v>
+      </c>
+      <c r="D173">
+        <v>35</v>
+      </c>
+      <c r="F173">
+        <v>2</v>
+      </c>
+      <c r="G173">
+        <v>3</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>11165</v>
+      </c>
+      <c r="B174">
+        <v>8005</v>
+      </c>
+      <c r="C174">
+        <v>10</v>
+      </c>
+      <c r="D174">
+        <v>25</v>
+      </c>
+      <c r="F174">
+        <v>2</v>
+      </c>
+      <c r="G174">
+        <v>3</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
         <v>100</v>
       </c>
     </row>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880899BE-57CD-4BB0-A2BC-40B026130CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C557826-45A0-43DD-862C-145F9BDBA0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="420" windowWidth="17055" windowHeight="14760" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -350,8 +350,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I174" totalsRowShown="0">
-  <autoFilter ref="A1:I174" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I175" totalsRowShown="0">
+  <autoFilter ref="A1:I175" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
     <tableColumn id="8" xr3:uid="{C54D5108-9FC5-4C3D-B93F-615D58535805}" name="EntityId"/>
@@ -664,13 +664,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomRight" activeCell="K174" sqref="K174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4632,6 +4632,26 @@
         <v>1</v>
       </c>
       <c r="I174">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>99999</v>
+      </c>
+      <c r="B175">
+        <v>2000</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>3</v>
+      </c>
+      <c r="H175">
+        <v>200</v>
+      </c>
+      <c r="I175">
         <v>100</v>
       </c>
     </row>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C557826-45A0-43DD-862C-145F9BDBA0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBD1A63-C73B-4293-A0AC-DB58A4BE8D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="3330" yWindow="870" windowWidth="21690" windowHeight="12525" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,10 +667,10 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K174" sqref="K174"/>
+      <selection pane="bottomRight" activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4643,7 +4643,7 @@
         <v>2000</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175">
         <v>3</v>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBD1A63-C73B-4293-A0AC-DB58A4BE8D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13922C7E-BEEC-4EC4-A3DC-1AFEF8ABA771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="870" windowWidth="21690" windowHeight="12525" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -350,8 +348,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I175" totalsRowShown="0">
-  <autoFilter ref="A1:I175" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I178" totalsRowShown="0">
+  <autoFilter ref="A1:I178" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
     <tableColumn id="8" xr3:uid="{C54D5108-9FC5-4C3D-B93F-615D58535805}" name="EntityId"/>
@@ -664,13 +662,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B154" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G177" sqref="G177"/>
+      <selection pane="bottomRight" activeCell="G182" sqref="G182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4652,6 +4650,84 @@
         <v>200</v>
       </c>
       <c r="I175">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>151</v>
+      </c>
+      <c r="B176">
+        <v>2000</v>
+      </c>
+      <c r="C176">
+        <v>14</v>
+      </c>
+      <c r="D176">
+        <v>16</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>3</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>351</v>
+      </c>
+      <c r="B177">
+        <v>2002</v>
+      </c>
+      <c r="C177">
+        <v>9</v>
+      </c>
+      <c r="D177">
+        <v>16</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>551</v>
+      </c>
+      <c r="B178">
+        <v>2005</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>16</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
         <v>100</v>
       </c>
     </row>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13922C7E-BEEC-4EC4-A3DC-1AFEF8ABA771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2177A1EF-463A-4DC9-936F-FC472AA1E33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
@@ -665,14 +665,15 @@
   <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G182" sqref="G182"/>
+      <selection pane="bottomRight" activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2177A1EF-463A-4DC9-936F-FC472AA1E33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB87CA2-1839-4412-8B69-3C536651280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="-48" yWindow="444" windowWidth="17784" windowHeight="10032" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +263,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -317,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,6 +334,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -348,8 +357,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I178" totalsRowShown="0">
-  <autoFilter ref="A1:I178" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I190" totalsRowShown="0">
+  <autoFilter ref="A1:I190" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
     <tableColumn id="8" xr3:uid="{C54D5108-9FC5-4C3D-B93F-615D58535805}" name="EntityId"/>
@@ -662,22 +671,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L84" sqref="L84"/>
+      <selection pane="bottomRight" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>101</v>
       </c>
@@ -726,7 +735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>102</v>
       </c>
@@ -746,7 +755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>103</v>
       </c>
@@ -766,7 +775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>104</v>
       </c>
@@ -786,7 +795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>105</v>
       </c>
@@ -806,7 +815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>106</v>
       </c>
@@ -826,7 +835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>107</v>
       </c>
@@ -846,7 +855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>108</v>
       </c>
@@ -866,7 +875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>109</v>
       </c>
@@ -886,7 +895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>110</v>
       </c>
@@ -906,7 +915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>201</v>
       </c>
@@ -926,7 +935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>202</v>
       </c>
@@ -946,7 +955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>203</v>
       </c>
@@ -966,7 +975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>204</v>
       </c>
@@ -986,7 +995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>205</v>
       </c>
@@ -1006,7 +1015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>206</v>
       </c>
@@ -1026,7 +1035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>207</v>
       </c>
@@ -1046,7 +1055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>208</v>
       </c>
@@ -1066,7 +1075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>209</v>
       </c>
@@ -1086,7 +1095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>210</v>
       </c>
@@ -1106,7 +1115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>301</v>
       </c>
@@ -1126,7 +1135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>302</v>
       </c>
@@ -1146,7 +1155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>303</v>
       </c>
@@ -1166,7 +1175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>304</v>
       </c>
@@ -1186,7 +1195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>305</v>
       </c>
@@ -1206,7 +1215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>306</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>307</v>
       </c>
@@ -1246,7 +1255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>308</v>
       </c>
@@ -1266,7 +1275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>309</v>
       </c>
@@ -1286,7 +1295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>310</v>
       </c>
@@ -1306,7 +1315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>501</v>
       </c>
@@ -1326,7 +1335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>502</v>
       </c>
@@ -1346,7 +1355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>503</v>
       </c>
@@ -1366,7 +1375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>504</v>
       </c>
@@ -1386,7 +1395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>505</v>
       </c>
@@ -1406,7 +1415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>506</v>
       </c>
@@ -1426,7 +1435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>507</v>
       </c>
@@ -1446,7 +1455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>508</v>
       </c>
@@ -1466,7 +1475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>509</v>
       </c>
@@ -1486,7 +1495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>510</v>
       </c>
@@ -1506,7 +1515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>601</v>
       </c>
@@ -1526,7 +1535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>602</v>
       </c>
@@ -1546,7 +1555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>603</v>
       </c>
@@ -1566,7 +1575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>604</v>
       </c>
@@ -1586,7 +1595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>605</v>
       </c>
@@ -1606,7 +1615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>606</v>
       </c>
@@ -1626,7 +1635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>607</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>608</v>
       </c>
@@ -1666,7 +1675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>609</v>
       </c>
@@ -1686,7 +1695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>610</v>
       </c>
@@ -1706,7 +1715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>701</v>
       </c>
@@ -1726,7 +1735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>702</v>
       </c>
@@ -1746,7 +1755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>703</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>704</v>
       </c>
@@ -1786,7 +1795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>705</v>
       </c>
@@ -1806,7 +1815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>706</v>
       </c>
@@ -1826,7 +1835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>707</v>
       </c>
@@ -1846,7 +1855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>708</v>
       </c>
@@ -1866,7 +1875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>709</v>
       </c>
@@ -1886,7 +1895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>710</v>
       </c>
@@ -1906,7 +1915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>801</v>
       </c>
@@ -1926,7 +1935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>802</v>
       </c>
@@ -1946,7 +1955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>803</v>
       </c>
@@ -1966,7 +1975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>804</v>
       </c>
@@ -1986,7 +1995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>805</v>
       </c>
@@ -2006,7 +2015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>806</v>
       </c>
@@ -2026,7 +2035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>807</v>
       </c>
@@ -2046,7 +2055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>808</v>
       </c>
@@ -2066,7 +2075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>809</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>810</v>
       </c>
@@ -2106,7 +2115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>901</v>
       </c>
@@ -2126,7 +2135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>902</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>903</v>
       </c>
@@ -2166,7 +2175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>904</v>
       </c>
@@ -2186,7 +2195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>905</v>
       </c>
@@ -2206,7 +2215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>906</v>
       </c>
@@ -2226,7 +2235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>907</v>
       </c>
@@ -2246,7 +2255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>908</v>
       </c>
@@ -2266,7 +2275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>909</v>
       </c>
@@ -2286,7 +2295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>910</v>
       </c>
@@ -2306,7 +2315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>1000</v>
       </c>
@@ -2332,7 +2341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>1001</v>
       </c>
@@ -2358,8 +2367,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" s="4">
         <v>2100</v>
       </c>
       <c r="B84">
@@ -2375,11 +2384,11 @@
         <v>3</v>
       </c>
       <c r="I84">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" s="4">
         <v>2101</v>
       </c>
       <c r="B85">
@@ -2395,11 +2404,11 @@
         <v>3</v>
       </c>
       <c r="I85">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86" s="4">
         <v>2102</v>
       </c>
       <c r="B86">
@@ -2415,856 +2424,784 @@
         <v>3</v>
       </c>
       <c r="I86">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A87" s="4">
+        <v>2103</v>
+      </c>
+      <c r="B87">
+        <v>2100</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A88" s="4">
+        <v>2104</v>
+      </c>
+      <c r="B88">
+        <v>2101</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A89" s="4">
+        <v>2105</v>
+      </c>
+      <c r="B89">
+        <v>2102</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A90" s="4">
+        <v>2106</v>
+      </c>
+      <c r="B90">
+        <v>2100</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A91" s="4">
+        <v>2107</v>
+      </c>
+      <c r="B91">
+        <v>2101</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A92" s="4">
+        <v>2108</v>
+      </c>
+      <c r="B92">
+        <v>2102</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93" s="4">
+        <v>2109</v>
+      </c>
+      <c r="B93">
+        <v>2100</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A94" s="4">
+        <v>2110</v>
+      </c>
+      <c r="B94">
+        <v>2101</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A95" s="4">
+        <v>2111</v>
+      </c>
+      <c r="B95">
+        <v>2102</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A96" s="4">
+        <v>2112</v>
+      </c>
+      <c r="B96">
+        <v>2100</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A87">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A97" s="4">
+        <v>2113</v>
+      </c>
+      <c r="B97">
+        <v>2101</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A98" s="4">
+        <v>2114</v>
+      </c>
+      <c r="B98">
+        <v>2102</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A99">
         <v>6001</v>
       </c>
-      <c r="B87">
+      <c r="B99">
         <v>6001</v>
       </c>
-      <c r="C87">
+      <c r="C99">
         <v>23</v>
       </c>
-      <c r="D87">
+      <c r="D99">
         <v>25</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>3</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A88">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A100">
         <v>6002</v>
       </c>
-      <c r="B88">
+      <c r="B100">
         <v>6002</v>
       </c>
-      <c r="C88">
+      <c r="C100">
         <v>30</v>
       </c>
-      <c r="D88">
+      <c r="D100">
         <v>25</v>
       </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>3</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A89">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A101">
         <v>6003</v>
       </c>
-      <c r="B89">
+      <c r="B101">
         <v>6003</v>
       </c>
-      <c r="C89">
+      <c r="C101">
         <v>20</v>
       </c>
-      <c r="D89">
+      <c r="D101">
         <v>18</v>
       </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>3</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A90">
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A102">
         <v>6004</v>
       </c>
-      <c r="B90">
+      <c r="B102">
         <v>6004</v>
       </c>
-      <c r="C90">
+      <c r="C102">
         <v>36</v>
       </c>
-      <c r="D90">
+      <c r="D102">
         <v>24</v>
       </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>3</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A91">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A103">
         <v>6005</v>
       </c>
-      <c r="B91">
+      <c r="B103">
         <v>6005</v>
       </c>
-      <c r="C91">
+      <c r="C103">
         <v>38</v>
       </c>
-      <c r="D91">
+      <c r="D103">
         <v>18</v>
       </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>3</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A92">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A104">
         <v>7001</v>
       </c>
-      <c r="B92">
+      <c r="B104">
         <v>8041</v>
       </c>
-      <c r="C92">
+      <c r="C104">
         <v>23</v>
       </c>
-      <c r="D92">
+      <c r="D104">
         <v>27</v>
       </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>3</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A93">
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A105">
         <v>7002</v>
       </c>
-      <c r="B93">
+      <c r="B105">
         <v>8042</v>
       </c>
-      <c r="C93">
+      <c r="C105">
         <v>30</v>
       </c>
-      <c r="D93">
+      <c r="D105">
         <v>27</v>
       </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>3</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A94">
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A106">
         <v>7003</v>
       </c>
-      <c r="B94">
+      <c r="B106">
         <v>8043</v>
       </c>
-      <c r="C94">
+      <c r="C106">
         <v>19</v>
       </c>
-      <c r="D94">
+      <c r="D106">
         <v>20</v>
       </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>3</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A95">
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A107">
         <v>7004</v>
       </c>
-      <c r="B95">
+      <c r="B107">
         <v>8044</v>
       </c>
-      <c r="C95">
+      <c r="C107">
         <v>37</v>
       </c>
-      <c r="D95">
+      <c r="D107">
         <v>26</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>3</v>
-      </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A96">
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A108">
         <v>7005</v>
       </c>
-      <c r="B96">
+      <c r="B108">
         <v>8045</v>
       </c>
-      <c r="C96">
+      <c r="C108">
         <v>40</v>
       </c>
-      <c r="D96">
+      <c r="D108">
         <v>20</v>
       </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>3</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A97">
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A109">
         <v>10000</v>
       </c>
-      <c r="B97">
+      <c r="B109">
         <v>1500</v>
       </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>3</v>
-      </c>
-      <c r="H97">
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109">
         <v>5</v>
       </c>
-      <c r="I97">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A98">
+      <c r="I109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A110">
         <v>10001</v>
       </c>
-      <c r="B98">
+      <c r="B110">
         <v>1501</v>
       </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>3</v>
-      </c>
-      <c r="H98">
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
         <v>5</v>
       </c>
-      <c r="I98">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A99">
+      <c r="I110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A111">
         <v>10002</v>
       </c>
-      <c r="B99">
+      <c r="B111">
         <v>1502</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>3</v>
-      </c>
-      <c r="H99">
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+      <c r="H111">
         <v>5</v>
       </c>
-      <c r="I99">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A100">
+      <c r="I111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A112">
         <v>10003</v>
       </c>
-      <c r="B100">
+      <c r="B112">
         <v>1503</v>
       </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>3</v>
-      </c>
-      <c r="H100">
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
         <v>5</v>
       </c>
-      <c r="I100">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A101">
+      <c r="I112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A113">
         <v>10004</v>
       </c>
-      <c r="B101">
+      <c r="B113">
         <v>1504</v>
       </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>3</v>
-      </c>
-      <c r="H101">
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
         <v>5</v>
       </c>
-      <c r="I101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A102">
+      <c r="I113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A114">
         <v>10005</v>
       </c>
-      <c r="B102">
+      <c r="B114">
         <v>1505</v>
       </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>3</v>
-      </c>
-      <c r="H102">
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114">
         <v>5</v>
       </c>
-      <c r="I102">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A103">
+      <c r="I114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A115">
         <v>10006</v>
       </c>
-      <c r="B103">
+      <c r="B115">
         <v>1506</v>
       </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>3</v>
-      </c>
-      <c r="H103">
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="H115">
         <v>5</v>
       </c>
-      <c r="I103">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A104">
+      <c r="I115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A116">
         <v>10007</v>
       </c>
-      <c r="B104">
+      <c r="B116">
         <v>1507</v>
       </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>3</v>
-      </c>
-      <c r="H104">
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116">
         <v>5</v>
       </c>
-      <c r="I104">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A105">
+      <c r="I116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A117">
         <v>10008</v>
       </c>
-      <c r="B105">
+      <c r="B117">
         <v>1508</v>
       </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>3</v>
-      </c>
-      <c r="H105">
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
+      <c r="H117">
         <v>5</v>
       </c>
-      <c r="I105">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A106">
+      <c r="I117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A118">
         <v>10009</v>
       </c>
-      <c r="B106">
+      <c r="B118">
         <v>1509</v>
       </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>3</v>
-      </c>
-      <c r="H106">
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118">
         <v>5</v>
       </c>
-      <c r="I106">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A107">
+      <c r="I118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A119">
         <v>11500</v>
       </c>
-      <c r="B107">
+      <c r="B119">
         <v>1550</v>
       </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>3</v>
-      </c>
-      <c r="H107">
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119">
         <v>10</v>
       </c>
-      <c r="I107">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A108">
+      <c r="I119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A120">
         <v>11000</v>
       </c>
-      <c r="B108">
+      <c r="B120">
         <v>1600</v>
       </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>3</v>
-      </c>
-      <c r="H108">
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120">
         <v>10</v>
       </c>
-      <c r="I108">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A109">
+      <c r="I120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A121">
         <v>11100</v>
       </c>
-      <c r="B109">
+      <c r="B121">
         <v>8013</v>
       </c>
-      <c r="C109">
+      <c r="C121">
         <v>32</v>
       </c>
-      <c r="D109">
+      <c r="D121">
         <v>42</v>
       </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109">
-        <v>3</v>
-      </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-      <c r="I109">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A110">
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A122">
         <v>11101</v>
-      </c>
-      <c r="B110">
-        <v>8020</v>
-      </c>
-      <c r="C110">
-        <v>22</v>
-      </c>
-      <c r="D110">
-        <v>35</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110">
-        <v>3</v>
-      </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="I110">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A111">
-        <v>11102</v>
-      </c>
-      <c r="B111">
-        <v>8020</v>
-      </c>
-      <c r="C111">
-        <v>23</v>
-      </c>
-      <c r="D111">
-        <v>35</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111">
-        <v>3</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A112">
-        <v>11103</v>
-      </c>
-      <c r="B112">
-        <v>8020</v>
-      </c>
-      <c r="C112">
-        <v>24</v>
-      </c>
-      <c r="D112">
-        <v>35</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112">
-        <v>3</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A113">
-        <v>11104</v>
-      </c>
-      <c r="B113">
-        <v>8020</v>
-      </c>
-      <c r="C113">
-        <v>25</v>
-      </c>
-      <c r="D113">
-        <v>35</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113">
-        <v>3</v>
-      </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="I113">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A114">
-        <v>11105</v>
-      </c>
-      <c r="B114">
-        <v>8020</v>
-      </c>
-      <c r="C114">
-        <v>26</v>
-      </c>
-      <c r="D114">
-        <v>35</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114">
-        <v>3</v>
-      </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A115">
-        <v>11106</v>
-      </c>
-      <c r="B115">
-        <v>8020</v>
-      </c>
-      <c r="C115">
-        <v>27</v>
-      </c>
-      <c r="D115">
-        <v>35</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115">
-        <v>3</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A116">
-        <v>11107</v>
-      </c>
-      <c r="B116">
-        <v>8020</v>
-      </c>
-      <c r="C116">
-        <v>28</v>
-      </c>
-      <c r="D116">
-        <v>35</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116">
-        <v>3</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A117">
-        <v>11108</v>
-      </c>
-      <c r="B117">
-        <v>8020</v>
-      </c>
-      <c r="C117">
-        <v>29</v>
-      </c>
-      <c r="D117">
-        <v>35</v>
-      </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="G117">
-        <v>3</v>
-      </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A118">
-        <v>11109</v>
-      </c>
-      <c r="B118">
-        <v>8020</v>
-      </c>
-      <c r="C118">
-        <v>30</v>
-      </c>
-      <c r="D118">
-        <v>35</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118">
-        <v>3</v>
-      </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A119">
-        <v>11110</v>
-      </c>
-      <c r="B119">
-        <v>8020</v>
-      </c>
-      <c r="C119">
-        <v>31</v>
-      </c>
-      <c r="D119">
-        <v>35</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119">
-        <v>3</v>
-      </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A120">
-        <v>11111</v>
-      </c>
-      <c r="B120">
-        <v>8020</v>
-      </c>
-      <c r="C120">
-        <v>32</v>
-      </c>
-      <c r="D120">
-        <v>35</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="G120">
-        <v>3</v>
-      </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-      <c r="I120">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A121">
-        <v>11112</v>
-      </c>
-      <c r="B121">
-        <v>8020</v>
-      </c>
-      <c r="C121">
-        <v>33</v>
-      </c>
-      <c r="D121">
-        <v>35</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121">
-        <v>3</v>
-      </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-      <c r="I121">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A122">
-        <v>11113</v>
       </c>
       <c r="B122">
         <v>8020</v>
       </c>
       <c r="C122">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D122">
         <v>35</v>
@@ -3282,15 +3219,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123">
-        <v>11114</v>
+        <v>11102</v>
       </c>
       <c r="B123">
         <v>8020</v>
       </c>
       <c r="C123">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D123">
         <v>35</v>
@@ -3308,15 +3245,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124">
-        <v>11115</v>
+        <v>11103</v>
       </c>
       <c r="B124">
         <v>8020</v>
       </c>
       <c r="C124">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D124">
         <v>35</v>
@@ -3334,15 +3271,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125">
-        <v>11116</v>
+        <v>11104</v>
       </c>
       <c r="B125">
         <v>8020</v>
       </c>
       <c r="C125">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D125">
         <v>35</v>
@@ -3360,15 +3297,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126">
-        <v>11117</v>
+        <v>11105</v>
       </c>
       <c r="B126">
         <v>8020</v>
       </c>
       <c r="C126">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D126">
         <v>35</v>
@@ -3386,15 +3323,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127">
-        <v>11118</v>
+        <v>11106</v>
       </c>
       <c r="B127">
         <v>8020</v>
       </c>
       <c r="C127">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D127">
         <v>35</v>
@@ -3412,15 +3349,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128">
-        <v>11119</v>
+        <v>11107</v>
       </c>
       <c r="B128">
         <v>8020</v>
       </c>
       <c r="C128">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D128">
         <v>35</v>
@@ -3438,18 +3375,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129">
-        <v>11120</v>
+        <v>11108</v>
       </c>
       <c r="B129">
         <v>8020</v>
       </c>
       <c r="C129">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D129">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -3464,18 +3401,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130">
-        <v>11121</v>
+        <v>11109</v>
       </c>
       <c r="B130">
         <v>8020</v>
       </c>
       <c r="C130">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D130">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -3490,18 +3427,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>11122</v>
+        <v>11110</v>
       </c>
       <c r="B131">
         <v>8020</v>
       </c>
       <c r="C131">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D131">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -3516,18 +3453,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132">
-        <v>11123</v>
+        <v>11111</v>
       </c>
       <c r="B132">
         <v>8020</v>
       </c>
       <c r="C132">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D132">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -3542,18 +3479,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133">
-        <v>11124</v>
+        <v>11112</v>
       </c>
       <c r="B133">
         <v>8020</v>
       </c>
       <c r="C133">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D133">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -3568,18 +3505,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134">
-        <v>11125</v>
+        <v>11113</v>
       </c>
       <c r="B134">
         <v>8020</v>
       </c>
       <c r="C134">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D134">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -3594,18 +3531,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135">
-        <v>11126</v>
+        <v>11114</v>
       </c>
       <c r="B135">
         <v>8020</v>
       </c>
       <c r="C135">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D135">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -3620,18 +3557,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136">
-        <v>11127</v>
+        <v>11115</v>
       </c>
       <c r="B136">
         <v>8020</v>
       </c>
       <c r="C136">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D136">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -3646,18 +3583,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137">
-        <v>11128</v>
+        <v>11116</v>
       </c>
       <c r="B137">
         <v>8020</v>
       </c>
       <c r="C137">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D137">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -3672,18 +3609,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138">
-        <v>11129</v>
+        <v>11117</v>
       </c>
       <c r="B138">
         <v>8020</v>
       </c>
       <c r="C138">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D138">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -3698,18 +3635,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139">
-        <v>11130</v>
+        <v>11118</v>
       </c>
       <c r="B139">
         <v>8020</v>
       </c>
       <c r="C139">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D139">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -3724,18 +3661,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140">
-        <v>11131</v>
+        <v>11119</v>
       </c>
       <c r="B140">
         <v>8020</v>
       </c>
       <c r="C140">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D140">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -3750,18 +3687,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141">
-        <v>11132</v>
+        <v>11120</v>
       </c>
       <c r="B141">
         <v>8020</v>
       </c>
       <c r="C141">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D141">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -3776,19 +3713,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142">
-        <v>11133</v>
+        <v>11121</v>
       </c>
       <c r="B142">
         <v>8020</v>
       </c>
       <c r="C142">
+        <v>42</v>
+      </c>
+      <c r="D142">
         <v>34</v>
       </c>
-      <c r="D142">
-        <v>9</v>
-      </c>
       <c r="F142">
         <v>1</v>
       </c>
@@ -3802,15 +3739,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143">
-        <v>11134</v>
+        <v>11122</v>
       </c>
       <c r="B143">
         <v>8020</v>
       </c>
       <c r="C143">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D143">
         <v>9</v>
@@ -3828,15 +3765,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144">
-        <v>11135</v>
+        <v>11123</v>
       </c>
       <c r="B144">
         <v>8020</v>
       </c>
       <c r="C144">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D144">
         <v>9</v>
@@ -3854,15 +3791,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145">
-        <v>11136</v>
+        <v>11124</v>
       </c>
       <c r="B145">
         <v>8020</v>
       </c>
       <c r="C145">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D145">
         <v>9</v>
@@ -3880,15 +3817,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146">
-        <v>11137</v>
+        <v>11125</v>
       </c>
       <c r="B146">
         <v>8020</v>
       </c>
       <c r="C146">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D146">
         <v>9</v>
@@ -3906,15 +3843,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147">
-        <v>11138</v>
+        <v>11126</v>
       </c>
       <c r="B147">
         <v>8020</v>
       </c>
       <c r="C147">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D147">
         <v>9</v>
@@ -3932,15 +3869,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148">
-        <v>11139</v>
+        <v>11127</v>
       </c>
       <c r="B148">
         <v>8020</v>
       </c>
       <c r="C148">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D148">
         <v>9</v>
@@ -3958,18 +3895,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149">
-        <v>11140</v>
+        <v>11128</v>
       </c>
       <c r="B149">
         <v>8020</v>
       </c>
       <c r="C149">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D149">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -3984,18 +3921,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150">
-        <v>11141</v>
+        <v>11129</v>
       </c>
       <c r="B150">
         <v>8020</v>
       </c>
       <c r="C150">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D150">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -4010,18 +3947,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151">
-        <v>11142</v>
+        <v>11130</v>
       </c>
       <c r="B151">
         <v>8020</v>
       </c>
       <c r="C151">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D151">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -4036,460 +3973,460 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152">
-        <v>11143</v>
+        <v>11131</v>
       </c>
       <c r="B152">
         <v>8020</v>
       </c>
       <c r="C152">
+        <v>32</v>
+      </c>
+      <c r="D152">
+        <v>9</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>3</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>11132</v>
+      </c>
+      <c r="B153">
+        <v>8020</v>
+      </c>
+      <c r="C153">
+        <v>33</v>
+      </c>
+      <c r="D153">
+        <v>9</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>11133</v>
+      </c>
+      <c r="B154">
+        <v>8020</v>
+      </c>
+      <c r="C154">
+        <v>34</v>
+      </c>
+      <c r="D154">
+        <v>9</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>11134</v>
+      </c>
+      <c r="B155">
+        <v>8020</v>
+      </c>
+      <c r="C155">
+        <v>35</v>
+      </c>
+      <c r="D155">
+        <v>9</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>3</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>11135</v>
+      </c>
+      <c r="B156">
+        <v>8020</v>
+      </c>
+      <c r="C156">
+        <v>36</v>
+      </c>
+      <c r="D156">
+        <v>9</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>3</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>11136</v>
+      </c>
+      <c r="B157">
+        <v>8020</v>
+      </c>
+      <c r="C157">
+        <v>37</v>
+      </c>
+      <c r="D157">
+        <v>9</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>3</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>11137</v>
+      </c>
+      <c r="B158">
+        <v>8020</v>
+      </c>
+      <c r="C158">
+        <v>38</v>
+      </c>
+      <c r="D158">
+        <v>9</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>11138</v>
+      </c>
+      <c r="B159">
+        <v>8020</v>
+      </c>
+      <c r="C159">
+        <v>39</v>
+      </c>
+      <c r="D159">
+        <v>9</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>3</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>11139</v>
+      </c>
+      <c r="B160">
+        <v>8020</v>
+      </c>
+      <c r="C160">
+        <v>40</v>
+      </c>
+      <c r="D160">
+        <v>9</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>11140</v>
+      </c>
+      <c r="B161">
+        <v>8020</v>
+      </c>
+      <c r="C161">
+        <v>41</v>
+      </c>
+      <c r="D161">
+        <v>10</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>3</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>11141</v>
+      </c>
+      <c r="B162">
+        <v>8020</v>
+      </c>
+      <c r="C162">
+        <v>42</v>
+      </c>
+      <c r="D162">
+        <v>11</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>11142</v>
+      </c>
+      <c r="B163">
+        <v>8020</v>
+      </c>
+      <c r="C163">
+        <v>43</v>
+      </c>
+      <c r="D163">
+        <v>12</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>11143</v>
+      </c>
+      <c r="B164">
+        <v>8020</v>
+      </c>
+      <c r="C164">
         <v>44</v>
       </c>
-      <c r="D152">
+      <c r="D164">
         <v>13</v>
       </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="G152">
-        <v>3</v>
-      </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-      <c r="I152">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A153">
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A165">
         <v>11144</v>
       </c>
-      <c r="B153">
+      <c r="B165">
         <v>8030</v>
       </c>
-      <c r="C153">
+      <c r="C165">
         <v>25</v>
       </c>
-      <c r="D153">
+      <c r="D165">
         <v>34</v>
       </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <v>3</v>
-      </c>
-      <c r="H153">
-        <v>1</v>
-      </c>
-      <c r="I153">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A154">
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A166">
         <v>11145</v>
       </c>
-      <c r="B154">
+      <c r="B166">
         <v>8030</v>
       </c>
-      <c r="C154">
+      <c r="C166">
         <v>38</v>
       </c>
-      <c r="D154">
+      <c r="D166">
         <v>34</v>
       </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <v>3</v>
-      </c>
-      <c r="H154">
-        <v>1</v>
-      </c>
-      <c r="I154">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A155">
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A167">
         <v>11146</v>
       </c>
-      <c r="B155">
+      <c r="B167">
         <v>8030</v>
       </c>
-      <c r="C155">
+      <c r="C167">
         <v>16</v>
       </c>
-      <c r="D155">
+      <c r="D167">
         <v>29</v>
       </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <v>3</v>
-      </c>
-      <c r="H155">
-        <v>1</v>
-      </c>
-      <c r="I155">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A156">
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>3</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A168">
         <v>11147</v>
       </c>
-      <c r="B156">
+      <c r="B168">
         <v>8030</v>
       </c>
-      <c r="C156">
+      <c r="C168">
         <v>43</v>
       </c>
-      <c r="D156">
+      <c r="D168">
         <v>18</v>
       </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>3</v>
-      </c>
-      <c r="H156">
-        <v>1</v>
-      </c>
-      <c r="I156">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A157">
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A169">
         <v>11148</v>
       </c>
-      <c r="B157">
+      <c r="B169">
         <v>8003</v>
       </c>
-      <c r="C157">
+      <c r="C169">
         <v>20</v>
       </c>
-      <c r="D157">
+      <c r="D169">
         <v>42</v>
-      </c>
-      <c r="F157">
-        <v>2</v>
-      </c>
-      <c r="G157">
-        <v>3</v>
-      </c>
-      <c r="H157">
-        <v>1</v>
-      </c>
-      <c r="I157">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A158">
-        <v>11149</v>
-      </c>
-      <c r="B158">
-        <v>8003</v>
-      </c>
-      <c r="C158">
-        <v>12</v>
-      </c>
-      <c r="D158">
-        <v>40</v>
-      </c>
-      <c r="F158">
-        <v>2</v>
-      </c>
-      <c r="G158">
-        <v>3</v>
-      </c>
-      <c r="H158">
-        <v>1</v>
-      </c>
-      <c r="I158">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A159">
-        <v>11150</v>
-      </c>
-      <c r="B159">
-        <v>8003</v>
-      </c>
-      <c r="C159">
-        <v>5</v>
-      </c>
-      <c r="D159">
-        <v>38</v>
-      </c>
-      <c r="F159">
-        <v>2</v>
-      </c>
-      <c r="G159">
-        <v>3</v>
-      </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-      <c r="I159">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A160">
-        <v>11151</v>
-      </c>
-      <c r="B160">
-        <v>8003</v>
-      </c>
-      <c r="C160">
-        <v>5</v>
-      </c>
-      <c r="D160">
-        <v>27</v>
-      </c>
-      <c r="F160">
-        <v>2</v>
-      </c>
-      <c r="G160">
-        <v>3</v>
-      </c>
-      <c r="H160">
-        <v>1</v>
-      </c>
-      <c r="I160">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A161">
-        <v>11152</v>
-      </c>
-      <c r="B161">
-        <v>8003</v>
-      </c>
-      <c r="C161">
-        <v>5</v>
-      </c>
-      <c r="D161">
-        <v>20</v>
-      </c>
-      <c r="F161">
-        <v>2</v>
-      </c>
-      <c r="G161">
-        <v>3</v>
-      </c>
-      <c r="H161">
-        <v>1</v>
-      </c>
-      <c r="I161">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A162">
-        <v>11153</v>
-      </c>
-      <c r="B162">
-        <v>8003</v>
-      </c>
-      <c r="C162">
-        <v>5</v>
-      </c>
-      <c r="D162">
-        <v>10</v>
-      </c>
-      <c r="F162">
-        <v>2</v>
-      </c>
-      <c r="G162">
-        <v>3</v>
-      </c>
-      <c r="H162">
-        <v>1</v>
-      </c>
-      <c r="I162">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A163">
-        <v>11154</v>
-      </c>
-      <c r="B163">
-        <v>8003</v>
-      </c>
-      <c r="C163">
-        <v>10</v>
-      </c>
-      <c r="D163">
-        <v>5</v>
-      </c>
-      <c r="F163">
-        <v>2</v>
-      </c>
-      <c r="G163">
-        <v>3</v>
-      </c>
-      <c r="H163">
-        <v>1</v>
-      </c>
-      <c r="I163">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A164">
-        <v>11155</v>
-      </c>
-      <c r="B164">
-        <v>8003</v>
-      </c>
-      <c r="C164">
-        <v>55</v>
-      </c>
-      <c r="D164">
-        <v>45</v>
-      </c>
-      <c r="F164">
-        <v>2</v>
-      </c>
-      <c r="G164">
-        <v>3</v>
-      </c>
-      <c r="H164">
-        <v>1</v>
-      </c>
-      <c r="I164">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A165">
-        <v>11156</v>
-      </c>
-      <c r="B165">
-        <v>8003</v>
-      </c>
-      <c r="C165">
-        <v>51</v>
-      </c>
-      <c r="D165">
-        <v>25</v>
-      </c>
-      <c r="F165">
-        <v>1</v>
-      </c>
-      <c r="G165">
-        <v>3</v>
-      </c>
-      <c r="H165">
-        <v>1</v>
-      </c>
-      <c r="I165">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A166">
-        <v>11157</v>
-      </c>
-      <c r="B166">
-        <v>8003</v>
-      </c>
-      <c r="C166">
-        <v>55</v>
-      </c>
-      <c r="D166">
-        <v>3</v>
-      </c>
-      <c r="F166">
-        <v>2</v>
-      </c>
-      <c r="G166">
-        <v>3</v>
-      </c>
-      <c r="H166">
-        <v>1</v>
-      </c>
-      <c r="I166">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A167">
-        <v>11158</v>
-      </c>
-      <c r="B167">
-        <v>8005</v>
-      </c>
-      <c r="C167">
-        <v>45</v>
-      </c>
-      <c r="D167">
-        <v>5</v>
-      </c>
-      <c r="F167">
-        <v>2</v>
-      </c>
-      <c r="G167">
-        <v>3</v>
-      </c>
-      <c r="H167">
-        <v>1</v>
-      </c>
-      <c r="I167">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A168">
-        <v>11159</v>
-      </c>
-      <c r="B168">
-        <v>8005</v>
-      </c>
-      <c r="C168">
-        <v>12</v>
-      </c>
-      <c r="D168">
-        <v>10</v>
-      </c>
-      <c r="F168">
-        <v>2</v>
-      </c>
-      <c r="G168">
-        <v>3</v>
-      </c>
-      <c r="H168">
-        <v>1</v>
-      </c>
-      <c r="I168">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A169">
-        <v>11160</v>
-      </c>
-      <c r="B169">
-        <v>8005</v>
-      </c>
-      <c r="C169">
-        <v>55</v>
-      </c>
-      <c r="D169">
-        <v>6</v>
       </c>
       <c r="F169">
         <v>2</v>
@@ -4504,21 +4441,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A170">
-        <v>11161</v>
+        <v>11149</v>
       </c>
       <c r="B170">
-        <v>8005</v>
+        <v>8003</v>
       </c>
       <c r="C170">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D170">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -4530,18 +4467,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A171">
-        <v>11162</v>
+        <v>11150</v>
       </c>
       <c r="B171">
-        <v>8005</v>
+        <v>8003</v>
       </c>
       <c r="C171">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D171">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F171">
         <v>2</v>
@@ -4556,18 +4493,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A172">
-        <v>11163</v>
+        <v>11151</v>
       </c>
       <c r="B172">
-        <v>8005</v>
+        <v>8003</v>
       </c>
       <c r="C172">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D172">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F172">
         <v>2</v>
@@ -4582,18 +4519,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A173">
-        <v>11164</v>
+        <v>11152</v>
       </c>
       <c r="B173">
-        <v>8005</v>
+        <v>8003</v>
       </c>
       <c r="C173">
+        <v>5</v>
+      </c>
+      <c r="D173">
         <v>20</v>
-      </c>
-      <c r="D173">
-        <v>35</v>
       </c>
       <c r="F173">
         <v>2</v>
@@ -4608,18 +4545,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A174">
-        <v>11165</v>
+        <v>11153</v>
       </c>
       <c r="B174">
-        <v>8005</v>
+        <v>8003</v>
       </c>
       <c r="C174">
+        <v>5</v>
+      </c>
+      <c r="D174">
         <v>10</v>
-      </c>
-      <c r="D174">
-        <v>25</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -4634,101 +4571,413 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175">
+        <v>11154</v>
+      </c>
+      <c r="B175">
+        <v>8003</v>
+      </c>
+      <c r="C175">
+        <v>10</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="F175">
+        <v>2</v>
+      </c>
+      <c r="G175">
+        <v>3</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>11155</v>
+      </c>
+      <c r="B176">
+        <v>8003</v>
+      </c>
+      <c r="C176">
+        <v>55</v>
+      </c>
+      <c r="D176">
+        <v>45</v>
+      </c>
+      <c r="F176">
+        <v>2</v>
+      </c>
+      <c r="G176">
+        <v>3</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>11156</v>
+      </c>
+      <c r="B177">
+        <v>8003</v>
+      </c>
+      <c r="C177">
+        <v>51</v>
+      </c>
+      <c r="D177">
+        <v>25</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>11157</v>
+      </c>
+      <c r="B178">
+        <v>8003</v>
+      </c>
+      <c r="C178">
+        <v>55</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="F178">
+        <v>2</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>11158</v>
+      </c>
+      <c r="B179">
+        <v>8005</v>
+      </c>
+      <c r="C179">
+        <v>45</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+      <c r="F179">
+        <v>2</v>
+      </c>
+      <c r="G179">
+        <v>3</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>11159</v>
+      </c>
+      <c r="B180">
+        <v>8005</v>
+      </c>
+      <c r="C180">
+        <v>12</v>
+      </c>
+      <c r="D180">
+        <v>10</v>
+      </c>
+      <c r="F180">
+        <v>2</v>
+      </c>
+      <c r="G180">
+        <v>3</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>11160</v>
+      </c>
+      <c r="B181">
+        <v>8005</v>
+      </c>
+      <c r="C181">
+        <v>55</v>
+      </c>
+      <c r="D181">
+        <v>6</v>
+      </c>
+      <c r="F181">
+        <v>2</v>
+      </c>
+      <c r="G181">
+        <v>3</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>11161</v>
+      </c>
+      <c r="B182">
+        <v>8005</v>
+      </c>
+      <c r="C182">
+        <v>51</v>
+      </c>
+      <c r="D182">
+        <v>20</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>3</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>11162</v>
+      </c>
+      <c r="B183">
+        <v>8005</v>
+      </c>
+      <c r="C183">
+        <v>50</v>
+      </c>
+      <c r="D183">
+        <v>45</v>
+      </c>
+      <c r="F183">
+        <v>2</v>
+      </c>
+      <c r="G183">
+        <v>3</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>11163</v>
+      </c>
+      <c r="B184">
+        <v>8005</v>
+      </c>
+      <c r="C184">
+        <v>25</v>
+      </c>
+      <c r="D184">
+        <v>45</v>
+      </c>
+      <c r="F184">
+        <v>2</v>
+      </c>
+      <c r="G184">
+        <v>3</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>11164</v>
+      </c>
+      <c r="B185">
+        <v>8005</v>
+      </c>
+      <c r="C185">
+        <v>20</v>
+      </c>
+      <c r="D185">
+        <v>35</v>
+      </c>
+      <c r="F185">
+        <v>2</v>
+      </c>
+      <c r="G185">
+        <v>3</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>11165</v>
+      </c>
+      <c r="B186">
+        <v>8005</v>
+      </c>
+      <c r="C186">
+        <v>10</v>
+      </c>
+      <c r="D186">
+        <v>25</v>
+      </c>
+      <c r="F186">
+        <v>2</v>
+      </c>
+      <c r="G186">
+        <v>3</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A187">
         <v>99999</v>
       </c>
-      <c r="B175">
+      <c r="B187">
         <v>2000</v>
       </c>
-      <c r="F175">
-        <v>0</v>
-      </c>
-      <c r="G175">
-        <v>3</v>
-      </c>
-      <c r="H175">
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>3</v>
+      </c>
+      <c r="H187">
         <v>200</v>
       </c>
-      <c r="I175">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A176">
+      <c r="I187">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A188">
         <v>151</v>
       </c>
-      <c r="B176">
+      <c r="B188">
         <v>2000</v>
       </c>
-      <c r="C176">
+      <c r="C188">
         <v>14</v>
       </c>
-      <c r="D176">
+      <c r="D188">
         <v>16</v>
       </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-      <c r="G176">
-        <v>3</v>
-      </c>
-      <c r="H176">
-        <v>1</v>
-      </c>
-      <c r="I176">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A177">
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>3</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A189">
         <v>351</v>
       </c>
-      <c r="B177">
+      <c r="B189">
         <v>2002</v>
       </c>
-      <c r="C177">
+      <c r="C189">
         <v>9</v>
       </c>
-      <c r="D177">
+      <c r="D189">
         <v>16</v>
       </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-      <c r="G177">
-        <v>3</v>
-      </c>
-      <c r="H177">
-        <v>1</v>
-      </c>
-      <c r="I177">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A178">
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>3</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A190">
         <v>551</v>
       </c>
-      <c r="B178">
+      <c r="B190">
         <v>2005</v>
       </c>
-      <c r="C178">
-        <v>3</v>
-      </c>
-      <c r="D178">
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
         <v>16</v>
       </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="G178">
-        <v>3</v>
-      </c>
-      <c r="H178">
-        <v>1</v>
-      </c>
-      <c r="I178">
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>3</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
         <v>100</v>
       </c>
     </row>
@@ -4750,92 +4999,92 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB87CA2-1839-4412-8B69-3C536651280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732ADC6D-4885-4D17-8E3A-C7FCC6B1FA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="444" windowWidth="17784" windowHeight="10032" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21690" windowHeight="12525" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,8 +357,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I190" totalsRowShown="0">
-  <autoFilter ref="A1:I190" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I191" totalsRowShown="0">
+  <autoFilter ref="A1:I191" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
     <tableColumn id="8" xr3:uid="{C54D5108-9FC5-4C3D-B93F-615D58535805}" name="EntityId"/>
@@ -671,22 +671,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F97" sqref="F97"/>
+      <selection pane="bottomRight" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="7" max="7" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>101</v>
       </c>
@@ -735,7 +735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>102</v>
       </c>
@@ -755,7 +755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>103</v>
       </c>
@@ -775,7 +775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>104</v>
       </c>
@@ -795,7 +795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>105</v>
       </c>
@@ -815,7 +815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>106</v>
       </c>
@@ -835,7 +835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>107</v>
       </c>
@@ -855,7 +855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>108</v>
       </c>
@@ -875,7 +875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>109</v>
       </c>
@@ -895,7 +895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>110</v>
       </c>
@@ -915,7 +915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>201</v>
       </c>
@@ -935,7 +935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>202</v>
       </c>
@@ -955,7 +955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>203</v>
       </c>
@@ -975,7 +975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>204</v>
       </c>
@@ -995,7 +995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>205</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>206</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>207</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>208</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>209</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>210</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>301</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>302</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>303</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>304</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>305</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>306</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>307</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>308</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>309</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>310</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>501</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>502</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>503</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>504</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>505</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>506</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>507</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>508</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>509</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>510</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>601</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>602</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>603</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>604</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>605</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>606</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>607</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>608</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>609</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>610</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>701</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>702</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>703</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>704</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>705</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>706</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>707</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>708</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>709</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>710</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>801</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>802</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>803</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>804</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>805</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>806</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>807</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>808</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>809</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>810</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>901</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>902</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>903</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>904</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>905</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>906</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>907</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>908</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>909</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>910</v>
       </c>
@@ -2315,41 +2315,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82">
+        <v>911</v>
+      </c>
+      <c r="B82">
+        <v>2008</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83">
         <v>1000</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>5000</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>12</v>
-      </c>
-      <c r="D82">
-        <v>10</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>3</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83">
-        <v>1001</v>
-      </c>
-      <c r="B83">
-        <v>5001</v>
-      </c>
-      <c r="C83">
-        <v>15</v>
       </c>
       <c r="D83">
         <v>10</v>
@@ -2367,272 +2361,278 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>1001</v>
+      </c>
+      <c r="B84">
+        <v>5001</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" s="4">
         <v>2100</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>2100</v>
       </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>3</v>
-      </c>
-      <c r="H84">
-        <v>3</v>
-      </c>
-      <c r="I84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="4">
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86" s="4">
         <v>2101</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <v>2101</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>3</v>
-      </c>
-      <c r="H85">
-        <v>3</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A86" s="4">
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" s="4">
         <v>2102</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <v>2102</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>3</v>
-      </c>
-      <c r="H86">
-        <v>3</v>
-      </c>
-      <c r="I86">
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A87" s="4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" s="4">
         <v>2103</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <v>2100</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>3</v>
-      </c>
-      <c r="H87">
-        <v>3</v>
-      </c>
-      <c r="I87">
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A88" s="4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" s="4">
         <v>2104</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <v>2101</v>
       </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>3</v>
-      </c>
-      <c r="H88">
-        <v>3</v>
-      </c>
-      <c r="I88">
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A89" s="4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" s="4">
         <v>2105</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <v>2102</v>
       </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>3</v>
-      </c>
-      <c r="H89">
-        <v>3</v>
-      </c>
-      <c r="I89">
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
         <v>0.7</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A90" s="4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" s="4">
         <v>2106</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>2100</v>
       </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>3</v>
-      </c>
-      <c r="H90">
-        <v>3</v>
-      </c>
-      <c r="I90">
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A91" s="4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" s="4">
         <v>2107</v>
       </c>
-      <c r="B91">
+      <c r="B92">
         <v>2101</v>
       </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>3</v>
-      </c>
-      <c r="H91">
-        <v>3</v>
-      </c>
-      <c r="I91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A92" s="4">
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" s="4">
         <v>2108</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <v>2102</v>
       </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>3</v>
-      </c>
-      <c r="H92">
-        <v>3</v>
-      </c>
-      <c r="I92">
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
         <v>0.8</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A93" s="4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" s="4">
         <v>2109</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <v>2100</v>
       </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>3</v>
-      </c>
-      <c r="H93">
-        <v>3</v>
-      </c>
-      <c r="I93">
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A94" s="4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" s="4">
         <v>2110</v>
       </c>
-      <c r="B94">
+      <c r="B95">
         <v>2101</v>
       </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>3</v>
-      </c>
-      <c r="H94">
-        <v>3</v>
-      </c>
-      <c r="I94">
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A95" s="4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" s="4">
         <v>2111</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <v>2102</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>3</v>
-      </c>
-      <c r="H95">
-        <v>3</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A96" s="4">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97" s="4">
         <v>2112</v>
       </c>
-      <c r="B96">
+      <c r="B97">
         <v>2100</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>3</v>
-      </c>
-      <c r="H96">
-        <v>3</v>
-      </c>
-      <c r="I96">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A97" s="4">
-        <v>2113</v>
-      </c>
-      <c r="B97">
-        <v>2101</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2647,12 +2647,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B98">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2667,41 +2667,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A99">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99" s="4">
+        <v>2114</v>
+      </c>
+      <c r="B99">
+        <v>2102</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100">
         <v>6001</v>
       </c>
-      <c r="B99">
+      <c r="B100">
         <v>6001</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <v>23</v>
-      </c>
-      <c r="D99">
-        <v>25</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>3</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A100">
-        <v>6002</v>
-      </c>
-      <c r="B100">
-        <v>6002</v>
-      </c>
-      <c r="C100">
-        <v>30</v>
       </c>
       <c r="D100">
         <v>25</v>
@@ -2719,119 +2713,119 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101">
+        <v>6002</v>
+      </c>
+      <c r="B101">
+        <v>6002</v>
+      </c>
+      <c r="C101">
+        <v>30</v>
+      </c>
+      <c r="D101">
+        <v>25</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102">
         <v>6003</v>
       </c>
-      <c r="B101">
+      <c r="B102">
         <v>6003</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>20</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>18</v>
       </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>3</v>
-      </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-      <c r="I101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A102">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A103">
         <v>6004</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <v>6004</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>36</v>
       </c>
-      <c r="D102">
+      <c r="D103">
         <v>24</v>
       </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>3</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="I102">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A103">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A104">
         <v>6005</v>
       </c>
-      <c r="B103">
+      <c r="B104">
         <v>6005</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <v>38</v>
       </c>
-      <c r="D103">
+      <c r="D104">
         <v>18</v>
       </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>3</v>
-      </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104">
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A105">
         <v>7001</v>
       </c>
-      <c r="B104">
+      <c r="B105">
         <v>8041</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>23</v>
-      </c>
-      <c r="D104">
-        <v>27</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>3</v>
-      </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105">
-        <v>7002</v>
-      </c>
-      <c r="B105">
-        <v>8042</v>
-      </c>
-      <c r="C105">
-        <v>30</v>
       </c>
       <c r="D105">
         <v>27</v>
@@ -2849,110 +2843,116 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106">
+        <v>7002</v>
+      </c>
+      <c r="B106">
+        <v>8042</v>
+      </c>
+      <c r="C106">
+        <v>30</v>
+      </c>
+      <c r="D106">
+        <v>27</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107">
         <v>7003</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <v>8043</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <v>19</v>
       </c>
-      <c r="D106">
+      <c r="D107">
         <v>20</v>
       </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>3</v>
-      </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-      <c r="I106">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A107">
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A108">
         <v>7004</v>
       </c>
-      <c r="B107">
+      <c r="B108">
         <v>8044</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>37</v>
       </c>
-      <c r="D107">
+      <c r="D108">
         <v>26</v>
       </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>3</v>
-      </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-      <c r="I107">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A108">
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109">
         <v>7005</v>
       </c>
-      <c r="B108">
+      <c r="B109">
         <v>8045</v>
       </c>
-      <c r="C108">
+      <c r="C109">
         <v>40</v>
       </c>
-      <c r="D108">
+      <c r="D109">
         <v>20</v>
       </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>3</v>
-      </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A109">
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110">
         <v>10000</v>
       </c>
-      <c r="B109">
+      <c r="B110">
         <v>1500</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>3</v>
-      </c>
-      <c r="H109">
-        <v>5</v>
-      </c>
-      <c r="I109">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A110">
-        <v>10001</v>
-      </c>
-      <c r="B110">
-        <v>1501</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2967,12 +2967,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B111">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2987,12 +2987,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B112">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3007,12 +3007,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B113">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3027,12 +3027,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B114">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3047,12 +3047,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B115">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3067,12 +3067,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="B116">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3087,12 +3087,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="B117">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3107,12 +3107,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B118">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3127,32 +3127,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119">
+        <v>10009</v>
+      </c>
+      <c r="B119">
+        <v>1509</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <v>5</v>
+      </c>
+      <c r="I119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A120">
         <v>11500</v>
       </c>
-      <c r="B119">
+      <c r="B120">
         <v>1550</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>3</v>
-      </c>
-      <c r="H119">
-        <v>10</v>
-      </c>
-      <c r="I119">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A120">
-        <v>11000</v>
-      </c>
-      <c r="B120">
-        <v>1600</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -3167,67 +3167,61 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121">
+        <v>11000</v>
+      </c>
+      <c r="B121">
+        <v>1600</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+      <c r="H121">
+        <v>10</v>
+      </c>
+      <c r="I121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A122">
         <v>11100</v>
       </c>
-      <c r="B121">
+      <c r="B122">
         <v>8013</v>
       </c>
-      <c r="C121">
+      <c r="C122">
         <v>32</v>
       </c>
-      <c r="D121">
+      <c r="D122">
         <v>42</v>
       </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121">
-        <v>3</v>
-      </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-      <c r="I121">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A122">
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A123">
         <v>11101</v>
-      </c>
-      <c r="B122">
-        <v>8020</v>
-      </c>
-      <c r="C122">
-        <v>22</v>
-      </c>
-      <c r="D122">
-        <v>35</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122">
-        <v>3</v>
-      </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A123">
-        <v>11102</v>
       </c>
       <c r="B123">
         <v>8020</v>
       </c>
       <c r="C123">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D123">
         <v>35</v>
@@ -3245,15 +3239,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>11103</v>
+        <v>11102</v>
       </c>
       <c r="B124">
         <v>8020</v>
       </c>
       <c r="C124">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D124">
         <v>35</v>
@@ -3271,15 +3265,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>11104</v>
+        <v>11103</v>
       </c>
       <c r="B125">
         <v>8020</v>
       </c>
       <c r="C125">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D125">
         <v>35</v>
@@ -3297,15 +3291,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>11105</v>
+        <v>11104</v>
       </c>
       <c r="B126">
         <v>8020</v>
       </c>
       <c r="C126">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D126">
         <v>35</v>
@@ -3323,15 +3317,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>11106</v>
+        <v>11105</v>
       </c>
       <c r="B127">
         <v>8020</v>
       </c>
       <c r="C127">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D127">
         <v>35</v>
@@ -3349,15 +3343,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>11107</v>
+        <v>11106</v>
       </c>
       <c r="B128">
         <v>8020</v>
       </c>
       <c r="C128">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128">
         <v>35</v>
@@ -3375,15 +3369,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>11108</v>
+        <v>11107</v>
       </c>
       <c r="B129">
         <v>8020</v>
       </c>
       <c r="C129">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D129">
         <v>35</v>
@@ -3401,15 +3395,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>11109</v>
+        <v>11108</v>
       </c>
       <c r="B130">
         <v>8020</v>
       </c>
       <c r="C130">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D130">
         <v>35</v>
@@ -3427,15 +3421,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>11110</v>
+        <v>11109</v>
       </c>
       <c r="B131">
         <v>8020</v>
       </c>
       <c r="C131">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D131">
         <v>35</v>
@@ -3453,15 +3447,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>11111</v>
+        <v>11110</v>
       </c>
       <c r="B132">
         <v>8020</v>
       </c>
       <c r="C132">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3479,15 +3473,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>11112</v>
+        <v>11111</v>
       </c>
       <c r="B133">
         <v>8020</v>
       </c>
       <c r="C133">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D133">
         <v>35</v>
@@ -3505,15 +3499,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>11113</v>
+        <v>11112</v>
       </c>
       <c r="B134">
         <v>8020</v>
       </c>
       <c r="C134">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D134">
         <v>35</v>
@@ -3531,15 +3525,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>11114</v>
+        <v>11113</v>
       </c>
       <c r="B135">
         <v>8020</v>
       </c>
       <c r="C135">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D135">
         <v>35</v>
@@ -3557,15 +3551,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>11115</v>
+        <v>11114</v>
       </c>
       <c r="B136">
         <v>8020</v>
       </c>
       <c r="C136">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D136">
         <v>35</v>
@@ -3583,15 +3577,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>11116</v>
+        <v>11115</v>
       </c>
       <c r="B137">
         <v>8020</v>
       </c>
       <c r="C137">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D137">
         <v>35</v>
@@ -3609,15 +3603,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>11117</v>
+        <v>11116</v>
       </c>
       <c r="B138">
         <v>8020</v>
       </c>
       <c r="C138">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D138">
         <v>35</v>
@@ -3635,15 +3629,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>11118</v>
+        <v>11117</v>
       </c>
       <c r="B139">
         <v>8020</v>
       </c>
       <c r="C139">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D139">
         <v>35</v>
@@ -3661,15 +3655,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>11119</v>
+        <v>11118</v>
       </c>
       <c r="B140">
         <v>8020</v>
       </c>
       <c r="C140">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D140">
         <v>35</v>
@@ -3687,18 +3681,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>11120</v>
+        <v>11119</v>
       </c>
       <c r="B141">
         <v>8020</v>
       </c>
       <c r="C141">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D141">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -3713,15 +3707,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>11121</v>
+        <v>11120</v>
       </c>
       <c r="B142">
         <v>8020</v>
       </c>
       <c r="C142">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D142">
         <v>34</v>
@@ -3739,18 +3733,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>11122</v>
+        <v>11121</v>
       </c>
       <c r="B143">
         <v>8020</v>
       </c>
       <c r="C143">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D143">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -3765,15 +3759,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>11123</v>
+        <v>11122</v>
       </c>
       <c r="B144">
         <v>8020</v>
       </c>
       <c r="C144">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D144">
         <v>9</v>
@@ -3791,15 +3785,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B145">
         <v>8020</v>
       </c>
       <c r="C145">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D145">
         <v>9</v>
@@ -3817,15 +3811,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B146">
         <v>8020</v>
       </c>
       <c r="C146">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D146">
         <v>9</v>
@@ -3843,15 +3837,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B147">
         <v>8020</v>
       </c>
       <c r="C147">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D147">
         <v>9</v>
@@ -3869,15 +3863,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>11127</v>
+        <v>11126</v>
       </c>
       <c r="B148">
         <v>8020</v>
       </c>
       <c r="C148">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D148">
         <v>9</v>
@@ -3895,15 +3889,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>11128</v>
+        <v>11127</v>
       </c>
       <c r="B149">
         <v>8020</v>
       </c>
       <c r="C149">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D149">
         <v>9</v>
@@ -3921,15 +3915,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>11129</v>
+        <v>11128</v>
       </c>
       <c r="B150">
         <v>8020</v>
       </c>
       <c r="C150">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D150">
         <v>9</v>
@@ -3947,15 +3941,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>11130</v>
+        <v>11129</v>
       </c>
       <c r="B151">
         <v>8020</v>
       </c>
       <c r="C151">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D151">
         <v>9</v>
@@ -3973,15 +3967,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>11131</v>
+        <v>11130</v>
       </c>
       <c r="B152">
         <v>8020</v>
       </c>
       <c r="C152">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D152">
         <v>9</v>
@@ -3999,15 +3993,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>11132</v>
+        <v>11131</v>
       </c>
       <c r="B153">
         <v>8020</v>
       </c>
       <c r="C153">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D153">
         <v>9</v>
@@ -4025,15 +4019,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>11133</v>
+        <v>11132</v>
       </c>
       <c r="B154">
         <v>8020</v>
       </c>
       <c r="C154">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D154">
         <v>9</v>
@@ -4051,15 +4045,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>11134</v>
+        <v>11133</v>
       </c>
       <c r="B155">
         <v>8020</v>
       </c>
       <c r="C155">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D155">
         <v>9</v>
@@ -4077,15 +4071,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156">
-        <v>11135</v>
+        <v>11134</v>
       </c>
       <c r="B156">
         <v>8020</v>
       </c>
       <c r="C156">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D156">
         <v>9</v>
@@ -4103,15 +4097,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157">
-        <v>11136</v>
+        <v>11135</v>
       </c>
       <c r="B157">
         <v>8020</v>
       </c>
       <c r="C157">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D157">
         <v>9</v>
@@ -4129,15 +4123,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158">
-        <v>11137</v>
+        <v>11136</v>
       </c>
       <c r="B158">
         <v>8020</v>
       </c>
       <c r="C158">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D158">
         <v>9</v>
@@ -4155,15 +4149,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159">
-        <v>11138</v>
+        <v>11137</v>
       </c>
       <c r="B159">
         <v>8020</v>
       </c>
       <c r="C159">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D159">
         <v>9</v>
@@ -4181,15 +4175,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160">
-        <v>11139</v>
+        <v>11138</v>
       </c>
       <c r="B160">
         <v>8020</v>
       </c>
       <c r="C160">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D160">
         <v>9</v>
@@ -4207,18 +4201,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161">
-        <v>11140</v>
+        <v>11139</v>
       </c>
       <c r="B161">
         <v>8020</v>
       </c>
       <c r="C161">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D161">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -4233,18 +4227,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162">
-        <v>11141</v>
+        <v>11140</v>
       </c>
       <c r="B162">
         <v>8020</v>
       </c>
       <c r="C162">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D162">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -4259,18 +4253,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163">
-        <v>11142</v>
+        <v>11141</v>
       </c>
       <c r="B163">
         <v>8020</v>
       </c>
       <c r="C163">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D163">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -4285,67 +4279,67 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164">
-        <v>11143</v>
+        <v>11142</v>
       </c>
       <c r="B164">
         <v>8020</v>
       </c>
       <c r="C164">
+        <v>43</v>
+      </c>
+      <c r="D164">
+        <v>12</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>11143</v>
+      </c>
+      <c r="B165">
+        <v>8020</v>
+      </c>
+      <c r="C165">
         <v>44</v>
       </c>
-      <c r="D164">
+      <c r="D165">
         <v>13</v>
       </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
-      <c r="G164">
-        <v>3</v>
-      </c>
-      <c r="H164">
-        <v>1</v>
-      </c>
-      <c r="I164">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A165">
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A166">
         <v>11144</v>
-      </c>
-      <c r="B165">
-        <v>8030</v>
-      </c>
-      <c r="C165">
-        <v>25</v>
-      </c>
-      <c r="D165">
-        <v>34</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-      <c r="G165">
-        <v>3</v>
-      </c>
-      <c r="H165">
-        <v>1</v>
-      </c>
-      <c r="I165">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A166">
-        <v>11145</v>
       </c>
       <c r="B166">
         <v>8030</v>
       </c>
       <c r="C166">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D166">
         <v>34</v>
@@ -4363,18 +4357,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167">
-        <v>11146</v>
+        <v>11145</v>
       </c>
       <c r="B167">
         <v>8030</v>
       </c>
       <c r="C167">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D167">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -4389,70 +4383,70 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168">
-        <v>11147</v>
+        <v>11146</v>
       </c>
       <c r="B168">
         <v>8030</v>
       </c>
       <c r="C168">
+        <v>16</v>
+      </c>
+      <c r="D168">
+        <v>29</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>11147</v>
+      </c>
+      <c r="B169">
+        <v>8030</v>
+      </c>
+      <c r="C169">
         <v>43</v>
       </c>
-      <c r="D168">
+      <c r="D169">
         <v>18</v>
       </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-      <c r="G168">
-        <v>3</v>
-      </c>
-      <c r="H168">
-        <v>1</v>
-      </c>
-      <c r="I168">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A169">
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>3</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A170">
         <v>11148</v>
-      </c>
-      <c r="B169">
-        <v>8003</v>
-      </c>
-      <c r="C169">
-        <v>20</v>
-      </c>
-      <c r="D169">
-        <v>42</v>
-      </c>
-      <c r="F169">
-        <v>2</v>
-      </c>
-      <c r="G169">
-        <v>3</v>
-      </c>
-      <c r="H169">
-        <v>1</v>
-      </c>
-      <c r="I169">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A170">
-        <v>11149</v>
       </c>
       <c r="B170">
         <v>8003</v>
       </c>
       <c r="C170">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D170">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F170">
         <v>2</v>
@@ -4467,18 +4461,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171">
-        <v>11150</v>
+        <v>11149</v>
       </c>
       <c r="B171">
         <v>8003</v>
       </c>
       <c r="C171">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D171">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F171">
         <v>2</v>
@@ -4493,9 +4487,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172">
-        <v>11151</v>
+        <v>11150</v>
       </c>
       <c r="B172">
         <v>8003</v>
@@ -4504,7 +4498,7 @@
         <v>5</v>
       </c>
       <c r="D172">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F172">
         <v>2</v>
@@ -4519,9 +4513,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173">
-        <v>11152</v>
+        <v>11151</v>
       </c>
       <c r="B173">
         <v>8003</v>
@@ -4530,7 +4524,7 @@
         <v>5</v>
       </c>
       <c r="D173">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F173">
         <v>2</v>
@@ -4545,9 +4539,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174">
-        <v>11153</v>
+        <v>11152</v>
       </c>
       <c r="B174">
         <v>8003</v>
@@ -4556,7 +4550,7 @@
         <v>5</v>
       </c>
       <c r="D174">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -4571,18 +4565,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175">
-        <v>11154</v>
+        <v>11153</v>
       </c>
       <c r="B175">
         <v>8003</v>
       </c>
       <c r="C175">
+        <v>5</v>
+      </c>
+      <c r="D175">
         <v>10</v>
-      </c>
-      <c r="D175">
-        <v>5</v>
       </c>
       <c r="F175">
         <v>2</v>
@@ -4597,18 +4591,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176">
-        <v>11155</v>
+        <v>11154</v>
       </c>
       <c r="B176">
         <v>8003</v>
       </c>
       <c r="C176">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D176">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F176">
         <v>2</v>
@@ -4623,21 +4617,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177">
-        <v>11156</v>
+        <v>11155</v>
       </c>
       <c r="B177">
         <v>8003</v>
       </c>
       <c r="C177">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D177">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G177">
         <v>3</v>
@@ -4649,44 +4643,44 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178">
-        <v>11157</v>
+        <v>11156</v>
       </c>
       <c r="B178">
         <v>8003</v>
       </c>
       <c r="C178">
+        <v>51</v>
+      </c>
+      <c r="D178">
+        <v>25</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>11157</v>
+      </c>
+      <c r="B179">
+        <v>8003</v>
+      </c>
+      <c r="C179">
         <v>55</v>
       </c>
-      <c r="D178">
-        <v>3</v>
-      </c>
-      <c r="F178">
-        <v>2</v>
-      </c>
-      <c r="G178">
-        <v>3</v>
-      </c>
-      <c r="H178">
-        <v>1</v>
-      </c>
-      <c r="I178">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A179">
-        <v>11158</v>
-      </c>
-      <c r="B179">
-        <v>8005</v>
-      </c>
-      <c r="C179">
-        <v>45</v>
-      </c>
       <c r="D179">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F179">
         <v>2</v>
@@ -4701,18 +4695,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180">
-        <v>11159</v>
+        <v>11158</v>
       </c>
       <c r="B180">
         <v>8005</v>
       </c>
       <c r="C180">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D180">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F180">
         <v>2</v>
@@ -4727,18 +4721,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181">
-        <v>11160</v>
+        <v>11159</v>
       </c>
       <c r="B181">
         <v>8005</v>
       </c>
       <c r="C181">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D181">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F181">
         <v>2</v>
@@ -4753,21 +4747,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182">
-        <v>11161</v>
+        <v>11160</v>
       </c>
       <c r="B182">
         <v>8005</v>
       </c>
       <c r="C182">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D182">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G182">
         <v>3</v>
@@ -4779,21 +4773,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183">
-        <v>11162</v>
+        <v>11161</v>
       </c>
       <c r="B183">
         <v>8005</v>
       </c>
       <c r="C183">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D183">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -4805,15 +4799,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184">
-        <v>11163</v>
+        <v>11162</v>
       </c>
       <c r="B184">
         <v>8005</v>
       </c>
       <c r="C184">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D184">
         <v>45</v>
@@ -4831,18 +4825,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185">
-        <v>11164</v>
+        <v>11163</v>
       </c>
       <c r="B185">
         <v>8005</v>
       </c>
       <c r="C185">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D185">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F185">
         <v>2</v>
@@ -4857,18 +4851,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186">
-        <v>11165</v>
+        <v>11164</v>
       </c>
       <c r="B186">
         <v>8005</v>
       </c>
       <c r="C186">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D186">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F186">
         <v>2</v>
@@ -4883,61 +4877,61 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A187">
+        <v>11165</v>
+      </c>
+      <c r="B187">
+        <v>8005</v>
+      </c>
+      <c r="C187">
+        <v>10</v>
+      </c>
+      <c r="D187">
+        <v>25</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="G187">
+        <v>3</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A188">
         <v>99999</v>
-      </c>
-      <c r="B187">
-        <v>2000</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="G187">
-        <v>3</v>
-      </c>
-      <c r="H187">
-        <v>200</v>
-      </c>
-      <c r="I187">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A188">
-        <v>151</v>
       </c>
       <c r="B188">
         <v>2000</v>
       </c>
-      <c r="C188">
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>3</v>
+      </c>
+      <c r="H188">
+        <v>200</v>
+      </c>
+      <c r="I188">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>151</v>
+      </c>
+      <c r="B189">
+        <v>2000</v>
+      </c>
+      <c r="C189">
         <v>14</v>
-      </c>
-      <c r="D188">
-        <v>16</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
-      <c r="G188">
-        <v>3</v>
-      </c>
-      <c r="H188">
-        <v>1</v>
-      </c>
-      <c r="I188">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A189">
-        <v>351</v>
-      </c>
-      <c r="B189">
-        <v>2002</v>
-      </c>
-      <c r="C189">
-        <v>9</v>
       </c>
       <c r="D189">
         <v>16</v>
@@ -4955,15 +4949,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A190">
-        <v>551</v>
+        <v>351</v>
       </c>
       <c r="B190">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D190">
         <v>16</v>
@@ -4978,6 +4972,32 @@
         <v>1</v>
       </c>
       <c r="I190">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>551</v>
+      </c>
+      <c r="B191">
+        <v>2005</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191">
+        <v>16</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>3</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
         <v>100</v>
       </c>
     </row>
@@ -4999,92 +5019,92 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>18</v>
       </c>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732ADC6D-4885-4D17-8E3A-C7FCC6B1FA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D89ACA1-357D-4AD7-B7C6-46FAD4964991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21690" windowHeight="12525" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K79" sqref="K79"/>
+      <selection pane="bottomRight" activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2329,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I82">
         <v>100</v>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D89ACA1-357D-4AD7-B7C6-46FAD4964991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCE9F9D-1B89-4511-968B-7206BECF7FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
@@ -357,8 +357,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I191" totalsRowShown="0">
-  <autoFilter ref="A1:I191" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:I192" totalsRowShown="0">
+  <autoFilter ref="A1:I192" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
     <tableColumn id="8" xr3:uid="{C54D5108-9FC5-4C3D-B93F-615D58535805}" name="EntityId"/>
@@ -671,13 +671,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M80" sqref="M80"/>
+      <selection pane="bottomRight" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2337,16 +2337,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>1000</v>
+        <v>912</v>
       </c>
       <c r="B83">
-        <v>5000</v>
-      </c>
-      <c r="C83">
-        <v>12</v>
-      </c>
-      <c r="D83">
-        <v>10</v>
+        <v>2009</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2355,7 +2349,7 @@
         <v>3</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
         <v>100</v>
@@ -2363,13 +2357,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B84">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="C84">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D84">
         <v>10</v>
@@ -2388,11 +2382,17 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85" s="4">
-        <v>2100</v>
+      <c r="A85">
+        <v>1001</v>
       </c>
       <c r="B85">
-        <v>2100</v>
+        <v>5001</v>
+      </c>
+      <c r="C85">
+        <v>15</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2401,18 +2401,18 @@
         <v>3</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B86">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2424,15 +2424,15 @@
         <v>3</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B87">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2444,15 +2444,15 @@
         <v>3</v>
       </c>
       <c r="I87">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B88">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2464,15 +2464,15 @@
         <v>3</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="4">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B89">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2484,15 +2484,15 @@
         <v>3</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B90">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2504,15 +2504,15 @@
         <v>3</v>
       </c>
       <c r="I90">
-        <v>0.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="4">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B91">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2524,15 +2524,15 @@
         <v>3</v>
       </c>
       <c r="I91">
-        <v>5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="4">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B92">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2544,15 +2544,15 @@
         <v>3</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B93">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2564,15 +2564,15 @@
         <v>3</v>
       </c>
       <c r="I93">
-        <v>0.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B94">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2584,15 +2584,15 @@
         <v>3</v>
       </c>
       <c r="I94">
-        <v>6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="4">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B95">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2604,15 +2604,15 @@
         <v>3</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="4">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B96">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2624,15 +2624,15 @@
         <v>3</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="4">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B97">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2644,15 +2644,15 @@
         <v>3</v>
       </c>
       <c r="I97">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B98">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2669,10 +2669,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B99">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2688,17 +2688,11 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A100">
-        <v>6001</v>
+      <c r="A100" s="4">
+        <v>2114</v>
       </c>
       <c r="B100">
-        <v>6001</v>
-      </c>
-      <c r="C100">
-        <v>23</v>
-      </c>
-      <c r="D100">
-        <v>25</v>
+        <v>2102</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2707,21 +2701,21 @@
         <v>3</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B101">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C101">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D101">
         <v>25</v>
@@ -2741,16 +2735,16 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B102">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C102">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D102">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2767,16 +2761,16 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="B103">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="C103">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D103">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2793,16 +2787,16 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="B104">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="C104">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D104">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2819,16 +2813,16 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>7001</v>
+        <v>6005</v>
       </c>
       <c r="B105">
-        <v>8041</v>
+        <v>6005</v>
       </c>
       <c r="C105">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D105">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -2845,13 +2839,13 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="B106">
-        <v>8042</v>
+        <v>8041</v>
       </c>
       <c r="C106">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D106">
         <v>27</v>
@@ -2871,16 +2865,16 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="B107">
-        <v>8043</v>
+        <v>8042</v>
       </c>
       <c r="C107">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D107">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2897,16 +2891,16 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="B108">
-        <v>8044</v>
+        <v>8043</v>
       </c>
       <c r="C108">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D108">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -2923,16 +2917,16 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="B109">
-        <v>8045</v>
+        <v>8044</v>
       </c>
       <c r="C109">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D109">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2949,10 +2943,16 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>10000</v>
+        <v>7005</v>
       </c>
       <c r="B110">
-        <v>1500</v>
+        <v>8045</v>
+      </c>
+      <c r="C110">
+        <v>40</v>
+      </c>
+      <c r="D110">
+        <v>20</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>3</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>100</v>
@@ -2969,10 +2969,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="B111">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B112">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3009,10 +3009,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B113">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3029,10 +3029,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B114">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3049,10 +3049,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B115">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3069,10 +3069,10 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B116">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3089,10 +3089,10 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="B117">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3109,10 +3109,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="B118">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B119">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3149,10 +3149,10 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>11500</v>
+        <v>10009</v>
       </c>
       <c r="B120">
-        <v>1550</v>
+        <v>1509</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="H120">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I120">
         <v>100</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="B121">
-        <v>1600</v>
+        <v>1550</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3189,25 +3189,19 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="B122">
-        <v>8013</v>
-      </c>
-      <c r="C122">
-        <v>32</v>
-      </c>
-      <c r="D122">
-        <v>42</v>
+        <v>1600</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122">
         <v>3</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I122">
         <v>100</v>
@@ -3215,16 +3209,16 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>11101</v>
+        <v>11100</v>
       </c>
       <c r="B123">
-        <v>8020</v>
+        <v>8013</v>
       </c>
       <c r="C123">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D123">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -3241,13 +3235,13 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>11102</v>
+        <v>11101</v>
       </c>
       <c r="B124">
         <v>8020</v>
       </c>
       <c r="C124">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D124">
         <v>35</v>
@@ -3267,13 +3261,13 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>11103</v>
+        <v>11102</v>
       </c>
       <c r="B125">
         <v>8020</v>
       </c>
       <c r="C125">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D125">
         <v>35</v>
@@ -3293,13 +3287,13 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>11104</v>
+        <v>11103</v>
       </c>
       <c r="B126">
         <v>8020</v>
       </c>
       <c r="C126">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D126">
         <v>35</v>
@@ -3319,13 +3313,13 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>11105</v>
+        <v>11104</v>
       </c>
       <c r="B127">
         <v>8020</v>
       </c>
       <c r="C127">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D127">
         <v>35</v>
@@ -3345,13 +3339,13 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>11106</v>
+        <v>11105</v>
       </c>
       <c r="B128">
         <v>8020</v>
       </c>
       <c r="C128">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D128">
         <v>35</v>
@@ -3371,13 +3365,13 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>11107</v>
+        <v>11106</v>
       </c>
       <c r="B129">
         <v>8020</v>
       </c>
       <c r="C129">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129">
         <v>35</v>
@@ -3397,13 +3391,13 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>11108</v>
+        <v>11107</v>
       </c>
       <c r="B130">
         <v>8020</v>
       </c>
       <c r="C130">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D130">
         <v>35</v>
@@ -3423,13 +3417,13 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>11109</v>
+        <v>11108</v>
       </c>
       <c r="B131">
         <v>8020</v>
       </c>
       <c r="C131">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D131">
         <v>35</v>
@@ -3449,13 +3443,13 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>11110</v>
+        <v>11109</v>
       </c>
       <c r="B132">
         <v>8020</v>
       </c>
       <c r="C132">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D132">
         <v>35</v>
@@ -3475,13 +3469,13 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>11111</v>
+        <v>11110</v>
       </c>
       <c r="B133">
         <v>8020</v>
       </c>
       <c r="C133">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D133">
         <v>35</v>
@@ -3501,13 +3495,13 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>11112</v>
+        <v>11111</v>
       </c>
       <c r="B134">
         <v>8020</v>
       </c>
       <c r="C134">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D134">
         <v>35</v>
@@ -3527,13 +3521,13 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>11113</v>
+        <v>11112</v>
       </c>
       <c r="B135">
         <v>8020</v>
       </c>
       <c r="C135">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D135">
         <v>35</v>
@@ -3553,13 +3547,13 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>11114</v>
+        <v>11113</v>
       </c>
       <c r="B136">
         <v>8020</v>
       </c>
       <c r="C136">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D136">
         <v>35</v>
@@ -3579,13 +3573,13 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>11115</v>
+        <v>11114</v>
       </c>
       <c r="B137">
         <v>8020</v>
       </c>
       <c r="C137">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D137">
         <v>35</v>
@@ -3605,13 +3599,13 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>11116</v>
+        <v>11115</v>
       </c>
       <c r="B138">
         <v>8020</v>
       </c>
       <c r="C138">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D138">
         <v>35</v>
@@ -3631,13 +3625,13 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>11117</v>
+        <v>11116</v>
       </c>
       <c r="B139">
         <v>8020</v>
       </c>
       <c r="C139">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D139">
         <v>35</v>
@@ -3657,13 +3651,13 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>11118</v>
+        <v>11117</v>
       </c>
       <c r="B140">
         <v>8020</v>
       </c>
       <c r="C140">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D140">
         <v>35</v>
@@ -3683,13 +3677,13 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>11119</v>
+        <v>11118</v>
       </c>
       <c r="B141">
         <v>8020</v>
       </c>
       <c r="C141">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D141">
         <v>35</v>
@@ -3709,16 +3703,16 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>11120</v>
+        <v>11119</v>
       </c>
       <c r="B142">
         <v>8020</v>
       </c>
       <c r="C142">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D142">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -3735,13 +3729,13 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>11121</v>
+        <v>11120</v>
       </c>
       <c r="B143">
         <v>8020</v>
       </c>
       <c r="C143">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D143">
         <v>34</v>
@@ -3761,16 +3755,16 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>11122</v>
+        <v>11121</v>
       </c>
       <c r="B144">
         <v>8020</v>
       </c>
       <c r="C144">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D144">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -3787,13 +3781,13 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>11123</v>
+        <v>11122</v>
       </c>
       <c r="B145">
         <v>8020</v>
       </c>
       <c r="C145">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D145">
         <v>9</v>
@@ -3813,13 +3807,13 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B146">
         <v>8020</v>
       </c>
       <c r="C146">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D146">
         <v>9</v>
@@ -3839,13 +3833,13 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B147">
         <v>8020</v>
       </c>
       <c r="C147">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D147">
         <v>9</v>
@@ -3865,13 +3859,13 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B148">
         <v>8020</v>
       </c>
       <c r="C148">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D148">
         <v>9</v>
@@ -3891,13 +3885,13 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>11127</v>
+        <v>11126</v>
       </c>
       <c r="B149">
         <v>8020</v>
       </c>
       <c r="C149">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149">
         <v>9</v>
@@ -3917,13 +3911,13 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>11128</v>
+        <v>11127</v>
       </c>
       <c r="B150">
         <v>8020</v>
       </c>
       <c r="C150">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D150">
         <v>9</v>
@@ -3943,13 +3937,13 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>11129</v>
+        <v>11128</v>
       </c>
       <c r="B151">
         <v>8020</v>
       </c>
       <c r="C151">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D151">
         <v>9</v>
@@ -3969,13 +3963,13 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>11130</v>
+        <v>11129</v>
       </c>
       <c r="B152">
         <v>8020</v>
       </c>
       <c r="C152">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D152">
         <v>9</v>
@@ -3995,13 +3989,13 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>11131</v>
+        <v>11130</v>
       </c>
       <c r="B153">
         <v>8020</v>
       </c>
       <c r="C153">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D153">
         <v>9</v>
@@ -4021,13 +4015,13 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>11132</v>
+        <v>11131</v>
       </c>
       <c r="B154">
         <v>8020</v>
       </c>
       <c r="C154">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D154">
         <v>9</v>
@@ -4047,13 +4041,13 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>11133</v>
+        <v>11132</v>
       </c>
       <c r="B155">
         <v>8020</v>
       </c>
       <c r="C155">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D155">
         <v>9</v>
@@ -4073,13 +4067,13 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156">
-        <v>11134</v>
+        <v>11133</v>
       </c>
       <c r="B156">
         <v>8020</v>
       </c>
       <c r="C156">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D156">
         <v>9</v>
@@ -4099,13 +4093,13 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157">
-        <v>11135</v>
+        <v>11134</v>
       </c>
       <c r="B157">
         <v>8020</v>
       </c>
       <c r="C157">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D157">
         <v>9</v>
@@ -4125,13 +4119,13 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158">
-        <v>11136</v>
+        <v>11135</v>
       </c>
       <c r="B158">
         <v>8020</v>
       </c>
       <c r="C158">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D158">
         <v>9</v>
@@ -4151,13 +4145,13 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159">
-        <v>11137</v>
+        <v>11136</v>
       </c>
       <c r="B159">
         <v>8020</v>
       </c>
       <c r="C159">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D159">
         <v>9</v>
@@ -4177,13 +4171,13 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160">
-        <v>11138</v>
+        <v>11137</v>
       </c>
       <c r="B160">
         <v>8020</v>
       </c>
       <c r="C160">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D160">
         <v>9</v>
@@ -4203,13 +4197,13 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161">
-        <v>11139</v>
+        <v>11138</v>
       </c>
       <c r="B161">
         <v>8020</v>
       </c>
       <c r="C161">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D161">
         <v>9</v>
@@ -4229,16 +4223,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162">
-        <v>11140</v>
+        <v>11139</v>
       </c>
       <c r="B162">
         <v>8020</v>
       </c>
       <c r="C162">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D162">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -4255,16 +4249,16 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163">
-        <v>11141</v>
+        <v>11140</v>
       </c>
       <c r="B163">
         <v>8020</v>
       </c>
       <c r="C163">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D163">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -4281,16 +4275,16 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164">
-        <v>11142</v>
+        <v>11141</v>
       </c>
       <c r="B164">
         <v>8020</v>
       </c>
       <c r="C164">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D164">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -4307,16 +4301,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165">
-        <v>11143</v>
+        <v>11142</v>
       </c>
       <c r="B165">
         <v>8020</v>
       </c>
       <c r="C165">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D165">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -4333,19 +4327,19 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166">
-        <v>11144</v>
+        <v>11143</v>
       </c>
       <c r="B166">
-        <v>8030</v>
+        <v>8020</v>
       </c>
       <c r="C166">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D166">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -4359,13 +4353,13 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167">
-        <v>11145</v>
+        <v>11144</v>
       </c>
       <c r="B167">
         <v>8030</v>
       </c>
       <c r="C167">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D167">
         <v>34</v>
@@ -4385,16 +4379,16 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168">
-        <v>11146</v>
+        <v>11145</v>
       </c>
       <c r="B168">
         <v>8030</v>
       </c>
       <c r="C168">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D168">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4411,16 +4405,16 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169">
-        <v>11147</v>
+        <v>11146</v>
       </c>
       <c r="B169">
         <v>8030</v>
       </c>
       <c r="C169">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D169">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -4437,19 +4431,19 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170">
-        <v>11148</v>
+        <v>11147</v>
       </c>
       <c r="B170">
-        <v>8003</v>
+        <v>8030</v>
       </c>
       <c r="C170">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D170">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -4463,16 +4457,16 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171">
-        <v>11149</v>
+        <v>11148</v>
       </c>
       <c r="B171">
         <v>8003</v>
       </c>
       <c r="C171">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D171">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F171">
         <v>2</v>
@@ -4489,16 +4483,16 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172">
-        <v>11150</v>
+        <v>11149</v>
       </c>
       <c r="B172">
         <v>8003</v>
       </c>
       <c r="C172">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D172">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F172">
         <v>2</v>
@@ -4515,7 +4509,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173">
-        <v>11151</v>
+        <v>11150</v>
       </c>
       <c r="B173">
         <v>8003</v>
@@ -4524,7 +4518,7 @@
         <v>5</v>
       </c>
       <c r="D173">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F173">
         <v>2</v>
@@ -4541,7 +4535,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174">
-        <v>11152</v>
+        <v>11151</v>
       </c>
       <c r="B174">
         <v>8003</v>
@@ -4550,7 +4544,7 @@
         <v>5</v>
       </c>
       <c r="D174">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -4567,7 +4561,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175">
-        <v>11153</v>
+        <v>11152</v>
       </c>
       <c r="B175">
         <v>8003</v>
@@ -4576,7 +4570,7 @@
         <v>5</v>
       </c>
       <c r="D175">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F175">
         <v>2</v>
@@ -4593,16 +4587,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176">
-        <v>11154</v>
+        <v>11153</v>
       </c>
       <c r="B176">
         <v>8003</v>
       </c>
       <c r="C176">
+        <v>5</v>
+      </c>
+      <c r="D176">
         <v>10</v>
-      </c>
-      <c r="D176">
-        <v>5</v>
       </c>
       <c r="F176">
         <v>2</v>
@@ -4619,16 +4613,16 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177">
-        <v>11155</v>
+        <v>11154</v>
       </c>
       <c r="B177">
         <v>8003</v>
       </c>
       <c r="C177">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D177">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F177">
         <v>2</v>
@@ -4645,19 +4639,19 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178">
-        <v>11156</v>
+        <v>11155</v>
       </c>
       <c r="B178">
         <v>8003</v>
       </c>
       <c r="C178">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D178">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G178">
         <v>3</v>
@@ -4671,19 +4665,19 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179">
-        <v>11157</v>
+        <v>11156</v>
       </c>
       <c r="B179">
         <v>8003</v>
       </c>
       <c r="C179">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G179">
         <v>3</v>
@@ -4697,16 +4691,16 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180">
-        <v>11158</v>
+        <v>11157</v>
       </c>
       <c r="B180">
-        <v>8005</v>
+        <v>8003</v>
       </c>
       <c r="C180">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D180">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F180">
         <v>2</v>
@@ -4723,16 +4717,16 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181">
-        <v>11159</v>
+        <v>11158</v>
       </c>
       <c r="B181">
         <v>8005</v>
       </c>
       <c r="C181">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D181">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F181">
         <v>2</v>
@@ -4749,16 +4743,16 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182">
-        <v>11160</v>
+        <v>11159</v>
       </c>
       <c r="B182">
         <v>8005</v>
       </c>
       <c r="C182">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D182">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F182">
         <v>2</v>
@@ -4775,19 +4769,19 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183">
-        <v>11161</v>
+        <v>11160</v>
       </c>
       <c r="B183">
         <v>8005</v>
       </c>
       <c r="C183">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D183">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -4801,19 +4795,19 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184">
-        <v>11162</v>
+        <v>11161</v>
       </c>
       <c r="B184">
         <v>8005</v>
       </c>
       <c r="C184">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D184">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G184">
         <v>3</v>
@@ -4827,13 +4821,13 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185">
-        <v>11163</v>
+        <v>11162</v>
       </c>
       <c r="B185">
         <v>8005</v>
       </c>
       <c r="C185">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D185">
         <v>45</v>
@@ -4853,16 +4847,16 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186">
-        <v>11164</v>
+        <v>11163</v>
       </c>
       <c r="B186">
         <v>8005</v>
       </c>
       <c r="C186">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D186">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F186">
         <v>2</v>
@@ -4879,16 +4873,16 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A187">
-        <v>11165</v>
+        <v>11164</v>
       </c>
       <c r="B187">
         <v>8005</v>
       </c>
       <c r="C187">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D187">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F187">
         <v>2</v>
@@ -4905,19 +4899,25 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A188">
-        <v>99999</v>
+        <v>11165</v>
       </c>
       <c r="B188">
-        <v>2000</v>
+        <v>8005</v>
+      </c>
+      <c r="C188">
+        <v>10</v>
+      </c>
+      <c r="D188">
+        <v>25</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G188">
         <v>3</v>
       </c>
       <c r="H188">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="I188">
         <v>100</v>
@@ -4925,17 +4925,11 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A189">
-        <v>151</v>
+        <v>99999</v>
       </c>
       <c r="B189">
         <v>2000</v>
       </c>
-      <c r="C189">
-        <v>14</v>
-      </c>
-      <c r="D189">
-        <v>16</v>
-      </c>
       <c r="F189">
         <v>0</v>
       </c>
@@ -4943,7 +4937,7 @@
         <v>3</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="I189">
         <v>100</v>
@@ -4951,13 +4945,13 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A190">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="B190">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C190">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D190">
         <v>16</v>
@@ -4977,13 +4971,13 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A191">
-        <v>551</v>
+        <v>351</v>
       </c>
       <c r="B191">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D191">
         <v>16</v>
@@ -4998,6 +4992,32 @@
         <v>1</v>
       </c>
       <c r="I191">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>551</v>
+      </c>
+      <c r="B192">
+        <v>2005</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192">
+        <v>16</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>3</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
         <v>100</v>
       </c>
     </row>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCE9F9D-1B89-4511-968B-7206BECF7FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5192893-7B51-4E8D-AA23-49382FC8C094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
@@ -674,10 +674,10 @@
   <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H83" sqref="H83"/>
+      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2946,10 +2946,10 @@
         <v>7005</v>
       </c>
       <c r="B110">
-        <v>8045</v>
+        <v>8046</v>
       </c>
       <c r="C110">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D110">
         <v>20</v>

--- a/Config/Excel/Resource.xlsx
+++ b/Config/Excel/Resource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5192893-7B51-4E8D-AA23-49382FC8C094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD5F52D-DA63-4EE9-B175-D975B048AE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
+    <workbookView xWindow="2496" yWindow="516" windowWidth="19356" windowHeight="10200" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -674,19 +674,19 @@
   <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
+      <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>101</v>
       </c>
@@ -735,7 +735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>102</v>
       </c>
@@ -755,7 +755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>103</v>
       </c>
@@ -775,7 +775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>104</v>
       </c>
@@ -795,7 +795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>105</v>
       </c>
@@ -815,7 +815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>106</v>
       </c>
@@ -835,7 +835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>107</v>
       </c>
@@ -855,7 +855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>108</v>
       </c>
@@ -875,7 +875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>109</v>
       </c>
@@ -895,7 +895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>110</v>
       </c>
@@ -915,7 +915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>201</v>
       </c>
@@ -935,7 +935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>202</v>
       </c>
@@ -955,7 +955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>203</v>
       </c>
@@ -975,7 +975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>204</v>
       </c>
@@ -995,7 +995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>205</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>206</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>207</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>208</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>209</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>210</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>301</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>302</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>303</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>304</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>305</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>306</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>307</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>308</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>309</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>310</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>501</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>502</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>503</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>504</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>505</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>506</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>507</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>508</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>509</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>510</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>601</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>602</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>603</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>604</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>605</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>606</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>607</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>608</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>609</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>610</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>701</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>702</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>703</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>704</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>705</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>706</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>707</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>708</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>709</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>710</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>801</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>802</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>803</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>804</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>805</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>806</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>807</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>808</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>809</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>810</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>901</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>902</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>903</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>904</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>905</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>906</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>907</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>908</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>909</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>910</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>911</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>912</v>
       </c>
@@ -2349,13 +2349,13 @@
         <v>3</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I83">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>1000</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>1001</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="4">
         <v>2100</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="4">
         <v>2101</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="4">
         <v>2102</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="4">
         <v>2103</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="4">
         <v>2104</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="4">
         <v>2105</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="4">
         <v>2106</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="4">
         <v>2107</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="4">
         <v>2108</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="4">
         <v>2109</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="4">
         <v>2110</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="4">
         <v>2111</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" s="4">
         <v>2112</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" s="4">
         <v>2113</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" s="4">
         <v>2114</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>6001</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>6002</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>6003</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>6004</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>6005</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>7001</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>7002</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>7003</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>7004</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>7005</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>10000</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>10001</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>10002</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>10003</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>10004</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>10005</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>10006</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>10007</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>10008</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>10009</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>11500</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>11000</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>11100</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>11101</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>11102</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>11103</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>11104</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>11105</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>11106</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>11107</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>11108</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>11109</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>11110</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>11111</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>11112</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>11113</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>11114</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>11115</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>11116</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>11117</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>11118</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>11119</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>11120</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>11121</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>11122</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>11123</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>11124</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>11125</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>11126</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>11127</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>11128</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>11129</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>11130</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>11131</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>11132</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>11133</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>11134</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>11135</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>11136</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>11137</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>11138</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>11139</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>11140</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>11141</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>11142</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>11143</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>11144</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>11145</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>11146</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>11147</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>11148</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>11149</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>11150</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>11151</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>11152</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>11153</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>11154</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>11155</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>11156</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>11157</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>11158</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>11159</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>11160</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>11161</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>11162</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>11163</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>11164</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>11165</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>99999</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>151</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>351</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>551</v>
       </c>
@@ -5039,92 +5039,92 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
